--- a/PUM.DE.xlsx
+++ b/PUM.DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E466CB44-ACCC-4379-82B3-F9931D5B3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FA030D-DA27-45B3-9430-929E1D67E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t xml:space="preserve">Puma </t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Lizenz/Provision Income</t>
   </si>
   <si>
     <t>SGA</t>
@@ -188,6 +185,21 @@
   <si>
     <t>FY24</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +262,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +273,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -600,7 +613,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>22.09</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -629,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>149.32</v>
+        <v>148.08000000000001</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -644,7 +657,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>3298.4787999999999</v>
+        <v>3641.2872000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>368.2</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -666,11 +679,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>131.6+356.4</f>
-        <v>488</v>
+        <f>300+28.4+978.8</f>
+        <v>1307.1999999999998</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,7 +692,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>3418.2788</v>
+        <v>4664.5871999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,13 +708,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FBAD2-1CB2-460A-BF2B-D7C2BA58E00E}">
-  <dimension ref="A1:BD264"/>
+  <dimension ref="A1:BH264"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,12 +723,12 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -740,28 +753,40 @@
       <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="L2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -769,27 +794,31 @@
       <c r="F3" s="3">
         <v>667.9</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>855.7</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>796.5</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>891.7</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>3418.4</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>3475.7</v>
-      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="T3" s="3">
+        <v>3418.4</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3475.7</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -825,10 +854,14 @@
       <c r="BB3" s="3"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -836,27 +869,31 @@
       <c r="F4" s="3">
         <v>846</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>790</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>986.3</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>753.7</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>3389.9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>3536</v>
-      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="T4" s="3">
+        <v>3389.9</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3536</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -892,10 +929,14 @@
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -903,27 +944,31 @@
       <c r="F5" s="3">
         <v>468.3</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>456.6</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>506.6</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>430.5</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>1793.4</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1805.5</v>
-      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="T5" s="3">
+        <v>1793.4</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1805.5</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -959,10 +1004,14 @@
       <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -970,27 +1019,31 @@
       <c r="F6" s="3">
         <v>1031.9000000000001</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>1181.5</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>1214.8</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>1186</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>4583.3999999999996</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>4733.6000000000004</v>
-      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="T6" s="3">
+        <v>4583.3999999999996</v>
+      </c>
+      <c r="U6" s="3">
+        <v>4733.6000000000004</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1026,10 +1079,14 @@
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1037,27 +1094,31 @@
       <c r="F7" s="3">
         <v>657.4</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>608.1</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <v>736.5</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>594.29999999999995</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>2763</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>2813.9</v>
-      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="T7" s="3">
+        <v>2763</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2813.9</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1093,10 +1154,14 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1104,27 +1169,31 @@
       <c r="F8" s="3">
         <v>292.89999999999998</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>312.7</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
         <v>338</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>295.7</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>1255.3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1269.7</v>
-      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="T8" s="3">
+        <v>1255.3</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1269.7</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1160,10 +1229,14 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1171,27 +1244,31 @@
       <c r="F9" s="3">
         <v>1355</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1608.1</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>1525.8</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>1529.5</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>6468.7</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>6391.8</v>
-      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="T9" s="3">
+        <v>6468.7</v>
+      </c>
+      <c r="U9" s="3">
+        <v>6391.8</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1227,10 +1304,14 @@
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1238,27 +1319,31 @@
       <c r="F10" s="3">
         <v>627.20000000000005</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>494.2</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>763.5</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>546.5</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>2133</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2425.4</v>
-      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="T10" s="3">
+        <v>2133</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2425.4</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1294,8 +1379,12 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1396,9 @@
       <c r="F11" s="6">
         <v>1982.2</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <v>2102.3000000000002</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6">
         <v>2308.1999999999998</v>
@@ -1315,21 +1406,23 @@
       <c r="J11" s="6">
         <v>2289.4</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="6">
+        <v>2076</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="6">
-        <v>8601.7000000000007</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>8817.2000000000007</v>
-      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="T11" s="6">
+        <v>8601.7000000000007</v>
+      </c>
+      <c r="U11" s="6">
+        <v>8817.2000000000007</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1365,8 +1458,12 @@
       <c r="BB11" s="3"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1475,9 @@
       <c r="F12" s="3">
         <v>1051.0999999999999</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>1103.3</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>1202.7</v>
@@ -1386,21 +1485,23 @@
       <c r="J12" s="3">
         <v>1206.5</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>1100.9000000000001</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3">
-        <v>4615.1000000000004</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4639.2</v>
-      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="T12" s="3">
+        <v>4615.1000000000004</v>
+      </c>
+      <c r="U12" s="3">
+        <v>4639.2</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1436,8 +1537,12 @@
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1564,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999.00000000000023</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
@@ -1470,38 +1575,41 @@
         <v>1105.4999999999998</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13" si="1">+J11-J12</f>
+        <f t="shared" ref="J13:K13" si="1">+J11-J12</f>
         <v>1082.9000000000001</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <f t="shared" ref="L13:P13" si="2">+L11-L12</f>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>975.09999999999991</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13:T13" si="2">+P11-P12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="R13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="3">
+      <c r="S13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="T13" s="3">
         <f t="shared" si="2"/>
         <v>3986.6000000000004</v>
       </c>
-      <c r="Q13" s="3">
-        <f>+Q11-Q12</f>
+      <c r="U13" s="3">
+        <f>+U11-U12</f>
         <v>4178.0000000000009</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1537,10 +1645,14 @@
       <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1550,7 +1662,9 @@
       <c r="F14" s="3">
         <v>11.3</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>5.2</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>4.9000000000000004</v>
@@ -1558,21 +1672,23 @@
       <c r="J14" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>5.5</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <v>38.5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>24.3</v>
-      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="T14" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>24.3</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1608,10 +1724,14 @@
       <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1621,7 +1741,9 @@
       <c r="F15" s="3">
         <v>848</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>845.3</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <v>873.4</v>
@@ -1629,21 +1751,24 @@
       <c r="J15" s="3">
         <v>982.2</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <f>904.9+18</f>
+        <v>922.9</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3">
-        <v>3403.5</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3580.2</v>
-      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="T15" s="3">
+        <v>3403.5</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3580.2</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1679,10 +1804,14 @@
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:H16" si="3">+C13+C14-C15</f>
@@ -1702,7 +1831,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>158.90000000000032</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
@@ -1713,38 +1842,41 @@
         <v>236.99999999999989</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16" si="4">+J13+J14-J15</f>
+        <f t="shared" ref="J16:K18" si="4">+J13+J14-J15</f>
         <v>108.90000000000009</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <f t="shared" ref="L16:P16" si="5">+L13+L14-L15</f>
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>57.699999999999932</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
+        <f t="shared" ref="P16:T16" si="5">+P13+P14-P15</f>
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="R16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="3">
+      <c r="S16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="T16" s="3">
         <f t="shared" si="5"/>
         <v>621.60000000000036</v>
       </c>
-      <c r="Q16" s="3">
-        <f>+Q13+Q14-Q15</f>
+      <c r="U16" s="3">
+        <f>+U13+U14-U15</f>
         <v>622.10000000000127</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1780,10 +1912,14 @@
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
-    </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1793,7 +1929,9 @@
       <c r="F17" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>26.8</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>46.7</v>
@@ -1801,21 +1939,23 @@
       <c r="J17" s="3">
         <v>43.5</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>42</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>159.69999999999999</v>
-      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="T17" s="3">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="U17" s="3">
+        <v>159.69999999999999</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1851,10 +1991,14 @@
       <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
-    </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+    </row>
+    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:D18" si="6">+C16-C17</f>
@@ -1869,12 +2013,12 @@
         <v>190.79999999999973</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ref="F18:J18" si="7">+F16-F17</f>
+        <f t="shared" ref="F18:K18" si="7">+F16-F17</f>
         <v>27.300000000000097</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>132.10000000000031</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
@@ -1888,35 +2032,38 @@
         <f t="shared" si="7"/>
         <v>65.400000000000091</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <f t="shared" ref="L18:P18" si="8">+L16-L17</f>
+      <c r="K18" s="3">
+        <f t="shared" si="7"/>
+        <v>15.699999999999932</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18:T18" si="8">+P16-P17</f>
         <v>0</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <f t="shared" si="8"/>
         <v>478.30000000000035</v>
       </c>
-      <c r="Q18" s="3">
-        <f>+Q16-Q17</f>
+      <c r="U18" s="3">
+        <f>+U16-U17</f>
         <v>462.40000000000128</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -1952,10 +2099,14 @@
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
-    </row>
-    <row r="19" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+    </row>
+    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1965,7 +2116,9 @@
       <c r="F19" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>33</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
         <v>47.8</v>
@@ -1973,21 +2126,23 @@
       <c r="J19" s="3">
         <v>20.7</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>4.2</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>117.8</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>120</v>
-      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3">
+        <v>117.8</v>
+      </c>
+      <c r="U19" s="3">
+        <v>120</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2023,10 +2178,14 @@
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
-    </row>
-    <row r="20" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+    </row>
+    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ref="C20:D20" si="9">+C18-C19</f>
@@ -2041,12 +2200,12 @@
         <v>142.89999999999972</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:J20" si="10">+F18-F19</f>
+        <f t="shared" ref="F20:K20" si="10">+F18-F19</f>
         <v>22.400000000000098</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99.100000000000307</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="10"/>
@@ -2060,35 +2219,38 @@
         <f t="shared" si="10"/>
         <v>44.700000000000088</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <f t="shared" ref="L20:P20" si="11">+L18-L19</f>
+      <c r="K20" s="3">
+        <f t="shared" si="10"/>
+        <v>11.499999999999932</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20:T20" si="11">+P18-P19</f>
         <v>0</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <f t="shared" si="11"/>
         <v>360.50000000000034</v>
       </c>
-      <c r="Q20" s="3">
-        <f>+Q18-Q19</f>
+      <c r="U20" s="3">
+        <f>+U18-U19</f>
         <v>342.40000000000128</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2124,10 +2286,14 @@
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
-    </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+    </row>
+    <row r="21" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2137,7 +2303,9 @@
       <c r="F21" s="3">
         <v>21.6</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>11.8</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
         <v>14.6</v>
@@ -2145,21 +2313,23 @@
       <c r="J21" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>11.1</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3">
-        <v>55.7</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>60.7</v>
-      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="T21" s="3">
+        <v>55.7</v>
+      </c>
+      <c r="U21" s="3">
+        <v>60.7</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2195,10 +2365,14 @@
       <c r="BB21" s="3"/>
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
-    </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+    </row>
+    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:D22" si="12">+C20-C21</f>
@@ -2213,12 +2387,12 @@
         <v>131.59999999999971</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:J22" si="13">+F20-F21</f>
+        <f t="shared" ref="F22:K22" si="13">+F20-F21</f>
         <v>0.80000000000009663</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>87.30000000000031</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="13"/>
@@ -2232,35 +2406,38 @@
         <f t="shared" si="13"/>
         <v>24.600000000000087</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <f t="shared" ref="L22:P22" si="14">+L20-L21</f>
+      <c r="K22" s="3">
+        <f t="shared" si="13"/>
+        <v>0.39999999999993285</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:T22" si="14">+P20-P21</f>
         <v>0</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <f t="shared" si="14"/>
         <v>304.80000000000035</v>
       </c>
-      <c r="Q22" s="3">
-        <f>+Q20-Q21</f>
+      <c r="U22" s="3">
+        <f>+U20-U21</f>
         <v>281.7000000000013</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2296,8 +2473,12 @@
       <c r="BB22" s="3"/>
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
-    </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+    </row>
+    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2352,10 +2533,14 @@
       <c r="BB23" s="3"/>
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
-    </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+    </row>
+    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="e">
         <f t="shared" ref="C24:D24" si="15">+C22/C25</f>
@@ -2370,12 +2555,12 @@
         <v>0.87838739821118483</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ref="F24:J24" si="16">+F22/F25</f>
+        <f t="shared" ref="F24:K24" si="16">+F22/F25</f>
         <v>5.3386720053393167E-3</v>
       </c>
-      <c r="G24" s="2" t="e">
+      <c r="G24" s="2">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.58231056563500749</v>
       </c>
       <c r="H24" s="2" t="e">
         <f t="shared" si="16"/>
@@ -2389,35 +2574,38 @@
         <f t="shared" si="16"/>
         <v>0.16474685239753609</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2" t="e">
-        <f t="shared" ref="L24:O24" si="17">+L22/L25</f>
+      <c r="K24" s="2">
+        <f t="shared" si="16"/>
+        <v>2.7012425715824745E-3</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2" t="e">
+        <f t="shared" ref="P24:S24" si="17">+P22/P25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="2" t="e">
+      <c r="Q24" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="2" t="e">
+      <c r="R24" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="2" t="e">
+      <c r="S24" s="2" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="2">
-        <f>+P22/P25</f>
+      <c r="T24" s="2">
+        <f>+T22/T25</f>
         <v>2.0340340340340366</v>
       </c>
-      <c r="Q24" s="2">
-        <f t="shared" ref="Q24" si="18">+Q22/Q25</f>
+      <c r="U24" s="2">
+        <f t="shared" ref="U24" si="18">+U22/U25</f>
         <v>1.886552370747397</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -2453,8 +2641,12 @@
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
-    </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+    </row>
+    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -2466,7 +2658,9 @@
       <c r="F25" s="3">
         <v>149.85</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>149.91999999999999</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
         <v>149.49</v>
@@ -2474,21 +2668,23 @@
       <c r="J25" s="3">
         <v>149.32</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>148.08000000000001</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <v>149.85</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>149.32</v>
-      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="T25" s="3">
+        <v>149.85</v>
+      </c>
+      <c r="U25" s="3">
+        <v>149.32</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2524,8 +2720,12 @@
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
-    </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+    </row>
+    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2580,40 +2780,47 @@
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
-    </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="7">
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+    </row>
+    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="8">
         <f>+I11/E11-1</f>
         <v>-1.254813725065973E-3</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <f>+J11/F11-1</f>
         <v>0.15497931591161329</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27" si="19">+K11/G11-1</f>
+        <v>-1.2510107976977713E-2</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -2645,33 +2852,37 @@
       <c r="BB27" s="3"/>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
-    </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+    </row>
+    <row r="28" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:H28" si="19">+C13/C11</f>
+        <f t="shared" ref="C28:H28" si="20">+C13/C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.47107438016528919</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46973060236101305</v>
       </c>
-      <c r="G28" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="7">
+        <f t="shared" si="20"/>
+        <v>0.47519383532321752</v>
       </c>
       <c r="H28" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="7">
@@ -2679,13 +2890,16 @@
         <v>0.47894463218092015</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28" si="20">+J13/J11</f>
+        <f t="shared" ref="J28:K28" si="21">+J13/J11</f>
         <v>0.47300602778020445</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="7">
+        <f t="shared" si="21"/>
+        <v>0.46970134874759145</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2728,33 +2942,37 @@
       <c r="BB28" s="3"/>
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
-    </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+    </row>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:H29" si="21">+C16/C11</f>
+        <f t="shared" ref="C29:H29" si="22">+C16/C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.10224568387348004</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7623852285339566E-2</v>
       </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="7">
+        <f t="shared" si="22"/>
+        <v>7.5583884317176567E-2</v>
       </c>
       <c r="H29" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="7">
@@ -2762,13 +2980,16 @@
         <v>0.10267741096958664</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" ref="J29" si="22">+J16/J11</f>
+        <f t="shared" ref="J29:K29" si="23">+J16/J11</f>
         <v>4.7567048134882536E-2</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="7">
+        <f t="shared" si="23"/>
+        <v>2.7793834296724437E-2</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2811,33 +3032,37 @@
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
-    </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+    </row>
+    <row r="30" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:H30" si="23">+C19/C18</f>
+        <f t="shared" ref="C30:H30" si="24">+C19/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25104821802935046</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.17948717948717888</v>
       </c>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="7">
+        <f t="shared" si="24"/>
+        <v>0.24981074943224771</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="7">
@@ -2845,13 +3070,16 @@
         <v>0.25118234366789294</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" ref="J30" si="24">+J19/J18</f>
+        <f t="shared" ref="J30:K30" si="25">+J19/J18</f>
         <v>0.31651376146788945</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="7">
+        <f t="shared" si="25"/>
+        <v>0.26751592356688014</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2894,8 +3122,12 @@
       <c r="BB30" s="3"/>
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
-    </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+    </row>
+    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2950,8 +3182,12 @@
       <c r="BB31" s="3"/>
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
-    </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+    </row>
+    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3006,8 +3242,12 @@
       <c r="BB32" s="3"/>
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
-    </row>
-    <row r="33" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+    </row>
+    <row r="33" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3062,8 +3302,12 @@
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
-    </row>
-    <row r="34" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+    </row>
+    <row r="34" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3118,8 +3362,12 @@
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
-    </row>
-    <row r="35" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+    </row>
+    <row r="35" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3174,8 +3422,12 @@
       <c r="BB35" s="3"/>
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
-    </row>
-    <row r="36" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+    </row>
+    <row r="36" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3230,8 +3482,12 @@
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
-    </row>
-    <row r="37" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+    </row>
+    <row r="37" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3286,8 +3542,12 @@
       <c r="BB37" s="3"/>
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
-    </row>
-    <row r="38" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+    </row>
+    <row r="38" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3342,8 +3602,12 @@
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
       <c r="BD38" s="3"/>
-    </row>
-    <row r="39" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+    </row>
+    <row r="39" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3398,8 +3662,12 @@
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="3"/>
-    </row>
-    <row r="40" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+    </row>
+    <row r="40" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3454,8 +3722,12 @@
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
       <c r="BD40" s="3"/>
-    </row>
-    <row r="41" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+    </row>
+    <row r="41" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3510,8 +3782,12 @@
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
       <c r="BD41" s="3"/>
-    </row>
-    <row r="42" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+    </row>
+    <row r="42" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3566,8 +3842,12 @@
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
       <c r="BD42" s="3"/>
-    </row>
-    <row r="43" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+    </row>
+    <row r="43" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3622,8 +3902,12 @@
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
       <c r="BD43" s="3"/>
-    </row>
-    <row r="44" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+    </row>
+    <row r="44" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3678,8 +3962,12 @@
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
       <c r="BD44" s="3"/>
-    </row>
-    <row r="45" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+    </row>
+    <row r="45" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3734,8 +4022,12 @@
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
-    </row>
-    <row r="46" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+    </row>
+    <row r="46" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3790,8 +4082,12 @@
       <c r="BB46" s="3"/>
       <c r="BC46" s="3"/>
       <c r="BD46" s="3"/>
-    </row>
-    <row r="47" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+    </row>
+    <row r="47" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3846,8 +4142,12 @@
       <c r="BB47" s="3"/>
       <c r="BC47" s="3"/>
       <c r="BD47" s="3"/>
-    </row>
-    <row r="48" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+    </row>
+    <row r="48" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3902,8 +4202,12 @@
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
-    </row>
-    <row r="49" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+    </row>
+    <row r="49" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3958,8 +4262,12 @@
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
       <c r="BD49" s="3"/>
-    </row>
-    <row r="50" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+    </row>
+    <row r="50" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4014,8 +4322,12 @@
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
       <c r="BD50" s="3"/>
-    </row>
-    <row r="51" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+    </row>
+    <row r="51" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4070,8 +4382,12 @@
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
       <c r="BD51" s="3"/>
-    </row>
-    <row r="52" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+    </row>
+    <row r="52" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4126,8 +4442,12 @@
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
       <c r="BD52" s="3"/>
-    </row>
-    <row r="53" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+    </row>
+    <row r="53" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4182,8 +4502,12 @@
       <c r="BB53" s="3"/>
       <c r="BC53" s="3"/>
       <c r="BD53" s="3"/>
-    </row>
-    <row r="54" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+    </row>
+    <row r="54" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4238,8 +4562,12 @@
       <c r="BB54" s="3"/>
       <c r="BC54" s="3"/>
       <c r="BD54" s="3"/>
-    </row>
-    <row r="55" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+    </row>
+    <row r="55" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4294,8 +4622,12 @@
       <c r="BB55" s="3"/>
       <c r="BC55" s="3"/>
       <c r="BD55" s="3"/>
-    </row>
-    <row r="56" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE55" s="3"/>
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+    </row>
+    <row r="56" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4350,8 +4682,12 @@
       <c r="BB56" s="3"/>
       <c r="BC56" s="3"/>
       <c r="BD56" s="3"/>
-    </row>
-    <row r="57" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE56" s="3"/>
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+    </row>
+    <row r="57" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4406,8 +4742,12 @@
       <c r="BB57" s="3"/>
       <c r="BC57" s="3"/>
       <c r="BD57" s="3"/>
-    </row>
-    <row r="58" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+    </row>
+    <row r="58" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4462,8 +4802,12 @@
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
       <c r="BD58" s="3"/>
-    </row>
-    <row r="59" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+    </row>
+    <row r="59" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4518,8 +4862,12 @@
       <c r="BB59" s="3"/>
       <c r="BC59" s="3"/>
       <c r="BD59" s="3"/>
-    </row>
-    <row r="60" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+    </row>
+    <row r="60" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4574,8 +4922,12 @@
       <c r="BB60" s="3"/>
       <c r="BC60" s="3"/>
       <c r="BD60" s="3"/>
-    </row>
-    <row r="61" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE60" s="3"/>
+      <c r="BF60" s="3"/>
+      <c r="BG60" s="3"/>
+      <c r="BH60" s="3"/>
+    </row>
+    <row r="61" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4630,8 +4982,12 @@
       <c r="BB61" s="3"/>
       <c r="BC61" s="3"/>
       <c r="BD61" s="3"/>
-    </row>
-    <row r="62" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE61" s="3"/>
+      <c r="BF61" s="3"/>
+      <c r="BG61" s="3"/>
+      <c r="BH61" s="3"/>
+    </row>
+    <row r="62" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4686,8 +5042,12 @@
       <c r="BB62" s="3"/>
       <c r="BC62" s="3"/>
       <c r="BD62" s="3"/>
-    </row>
-    <row r="63" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE62" s="3"/>
+      <c r="BF62" s="3"/>
+      <c r="BG62" s="3"/>
+      <c r="BH62" s="3"/>
+    </row>
+    <row r="63" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4742,8 +5102,12 @@
       <c r="BB63" s="3"/>
       <c r="BC63" s="3"/>
       <c r="BD63" s="3"/>
-    </row>
-    <row r="64" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+    </row>
+    <row r="64" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4798,8 +5162,12 @@
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
       <c r="BD64" s="3"/>
-    </row>
-    <row r="65" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3"/>
+    </row>
+    <row r="65" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4854,8 +5222,12 @@
       <c r="BB65" s="3"/>
       <c r="BC65" s="3"/>
       <c r="BD65" s="3"/>
-    </row>
-    <row r="66" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE65" s="3"/>
+      <c r="BF65" s="3"/>
+      <c r="BG65" s="3"/>
+      <c r="BH65" s="3"/>
+    </row>
+    <row r="66" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4910,8 +5282,12 @@
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
       <c r="BD66" s="3"/>
-    </row>
-    <row r="67" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE66" s="3"/>
+      <c r="BF66" s="3"/>
+      <c r="BG66" s="3"/>
+      <c r="BH66" s="3"/>
+    </row>
+    <row r="67" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4966,8 +5342,12 @@
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
       <c r="BD67" s="3"/>
-    </row>
-    <row r="68" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE67" s="3"/>
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+    </row>
+    <row r="68" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5022,8 +5402,12 @@
       <c r="BB68" s="3"/>
       <c r="BC68" s="3"/>
       <c r="BD68" s="3"/>
-    </row>
-    <row r="69" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE68" s="3"/>
+      <c r="BF68" s="3"/>
+      <c r="BG68" s="3"/>
+      <c r="BH68" s="3"/>
+    </row>
+    <row r="69" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5078,8 +5462,12 @@
       <c r="BB69" s="3"/>
       <c r="BC69" s="3"/>
       <c r="BD69" s="3"/>
-    </row>
-    <row r="70" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE69" s="3"/>
+      <c r="BF69" s="3"/>
+      <c r="BG69" s="3"/>
+      <c r="BH69" s="3"/>
+    </row>
+    <row r="70" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5134,8 +5522,12 @@
       <c r="BB70" s="3"/>
       <c r="BC70" s="3"/>
       <c r="BD70" s="3"/>
-    </row>
-    <row r="71" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="3"/>
+      <c r="BG70" s="3"/>
+      <c r="BH70" s="3"/>
+    </row>
+    <row r="71" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5190,8 +5582,12 @@
       <c r="BB71" s="3"/>
       <c r="BC71" s="3"/>
       <c r="BD71" s="3"/>
-    </row>
-    <row r="72" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE71" s="3"/>
+      <c r="BF71" s="3"/>
+      <c r="BG71" s="3"/>
+      <c r="BH71" s="3"/>
+    </row>
+    <row r="72" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5246,8 +5642,12 @@
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
       <c r="BD72" s="3"/>
-    </row>
-    <row r="73" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE72" s="3"/>
+      <c r="BF72" s="3"/>
+      <c r="BG72" s="3"/>
+      <c r="BH72" s="3"/>
+    </row>
+    <row r="73" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5302,8 +5702,12 @@
       <c r="BB73" s="3"/>
       <c r="BC73" s="3"/>
       <c r="BD73" s="3"/>
-    </row>
-    <row r="74" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE73" s="3"/>
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+    </row>
+    <row r="74" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5358,8 +5762,12 @@
       <c r="BB74" s="3"/>
       <c r="BC74" s="3"/>
       <c r="BD74" s="3"/>
-    </row>
-    <row r="75" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+    </row>
+    <row r="75" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5414,8 +5822,12 @@
       <c r="BB75" s="3"/>
       <c r="BC75" s="3"/>
       <c r="BD75" s="3"/>
-    </row>
-    <row r="76" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+    </row>
+    <row r="76" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5470,8 +5882,12 @@
       <c r="BB76" s="3"/>
       <c r="BC76" s="3"/>
       <c r="BD76" s="3"/>
-    </row>
-    <row r="77" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="3"/>
+      <c r="BG76" s="3"/>
+      <c r="BH76" s="3"/>
+    </row>
+    <row r="77" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5526,8 +5942,12 @@
       <c r="BB77" s="3"/>
       <c r="BC77" s="3"/>
       <c r="BD77" s="3"/>
-    </row>
-    <row r="78" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE77" s="3"/>
+      <c r="BF77" s="3"/>
+      <c r="BG77" s="3"/>
+      <c r="BH77" s="3"/>
+    </row>
+    <row r="78" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5582,8 +6002,12 @@
       <c r="BB78" s="3"/>
       <c r="BC78" s="3"/>
       <c r="BD78" s="3"/>
-    </row>
-    <row r="79" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3"/>
+      <c r="BH78" s="3"/>
+    </row>
+    <row r="79" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5638,8 +6062,12 @@
       <c r="BB79" s="3"/>
       <c r="BC79" s="3"/>
       <c r="BD79" s="3"/>
-    </row>
-    <row r="80" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+    </row>
+    <row r="80" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5694,8 +6122,12 @@
       <c r="BB80" s="3"/>
       <c r="BC80" s="3"/>
       <c r="BD80" s="3"/>
-    </row>
-    <row r="81" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE80" s="3"/>
+      <c r="BF80" s="3"/>
+      <c r="BG80" s="3"/>
+      <c r="BH80" s="3"/>
+    </row>
+    <row r="81" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5750,8 +6182,12 @@
       <c r="BB81" s="3"/>
       <c r="BC81" s="3"/>
       <c r="BD81" s="3"/>
-    </row>
-    <row r="82" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+    </row>
+    <row r="82" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5806,8 +6242,12 @@
       <c r="BB82" s="3"/>
       <c r="BC82" s="3"/>
       <c r="BD82" s="3"/>
-    </row>
-    <row r="83" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+    </row>
+    <row r="83" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5862,8 +6302,12 @@
       <c r="BB83" s="3"/>
       <c r="BC83" s="3"/>
       <c r="BD83" s="3"/>
-    </row>
-    <row r="84" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+    </row>
+    <row r="84" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5918,8 +6362,12 @@
       <c r="BB84" s="3"/>
       <c r="BC84" s="3"/>
       <c r="BD84" s="3"/>
-    </row>
-    <row r="85" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE84" s="3"/>
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+    </row>
+    <row r="85" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5974,8 +6422,12 @@
       <c r="BB85" s="3"/>
       <c r="BC85" s="3"/>
       <c r="BD85" s="3"/>
-    </row>
-    <row r="86" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE85" s="3"/>
+      <c r="BF85" s="3"/>
+      <c r="BG85" s="3"/>
+      <c r="BH85" s="3"/>
+    </row>
+    <row r="86" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6030,8 +6482,12 @@
       <c r="BB86" s="3"/>
       <c r="BC86" s="3"/>
       <c r="BD86" s="3"/>
-    </row>
-    <row r="87" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3"/>
+      <c r="BH86" s="3"/>
+    </row>
+    <row r="87" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6086,8 +6542,12 @@
       <c r="BB87" s="3"/>
       <c r="BC87" s="3"/>
       <c r="BD87" s="3"/>
-    </row>
-    <row r="88" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE87" s="3"/>
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3"/>
+      <c r="BH87" s="3"/>
+    </row>
+    <row r="88" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6142,8 +6602,12 @@
       <c r="BB88" s="3"/>
       <c r="BC88" s="3"/>
       <c r="BD88" s="3"/>
-    </row>
-    <row r="89" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE88" s="3"/>
+      <c r="BF88" s="3"/>
+      <c r="BG88" s="3"/>
+      <c r="BH88" s="3"/>
+    </row>
+    <row r="89" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6198,8 +6662,12 @@
       <c r="BB89" s="3"/>
       <c r="BC89" s="3"/>
       <c r="BD89" s="3"/>
-    </row>
-    <row r="90" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+    </row>
+    <row r="90" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6254,8 +6722,12 @@
       <c r="BB90" s="3"/>
       <c r="BC90" s="3"/>
       <c r="BD90" s="3"/>
-    </row>
-    <row r="91" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+    </row>
+    <row r="91" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6310,8 +6782,12 @@
       <c r="BB91" s="3"/>
       <c r="BC91" s="3"/>
       <c r="BD91" s="3"/>
-    </row>
-    <row r="92" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+    </row>
+    <row r="92" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6366,8 +6842,12 @@
       <c r="BB92" s="3"/>
       <c r="BC92" s="3"/>
       <c r="BD92" s="3"/>
-    </row>
-    <row r="93" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+    </row>
+    <row r="93" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6422,8 +6902,12 @@
       <c r="BB93" s="3"/>
       <c r="BC93" s="3"/>
       <c r="BD93" s="3"/>
-    </row>
-    <row r="94" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE93" s="3"/>
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+    </row>
+    <row r="94" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6478,8 +6962,12 @@
       <c r="BB94" s="3"/>
       <c r="BC94" s="3"/>
       <c r="BD94" s="3"/>
-    </row>
-    <row r="95" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE94" s="3"/>
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+    </row>
+    <row r="95" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6534,8 +7022,12 @@
       <c r="BB95" s="3"/>
       <c r="BC95" s="3"/>
       <c r="BD95" s="3"/>
-    </row>
-    <row r="96" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE95" s="3"/>
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+    </row>
+    <row r="96" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6590,8 +7082,12 @@
       <c r="BB96" s="3"/>
       <c r="BC96" s="3"/>
       <c r="BD96" s="3"/>
-    </row>
-    <row r="97" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="3"/>
+      <c r="BG96" s="3"/>
+      <c r="BH96" s="3"/>
+    </row>
+    <row r="97" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6646,8 +7142,12 @@
       <c r="BB97" s="3"/>
       <c r="BC97" s="3"/>
       <c r="BD97" s="3"/>
-    </row>
-    <row r="98" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE97" s="3"/>
+      <c r="BF97" s="3"/>
+      <c r="BG97" s="3"/>
+      <c r="BH97" s="3"/>
+    </row>
+    <row r="98" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6702,8 +7202,12 @@
       <c r="BB98" s="3"/>
       <c r="BC98" s="3"/>
       <c r="BD98" s="3"/>
-    </row>
-    <row r="99" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE98" s="3"/>
+      <c r="BF98" s="3"/>
+      <c r="BG98" s="3"/>
+      <c r="BH98" s="3"/>
+    </row>
+    <row r="99" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6758,8 +7262,12 @@
       <c r="BB99" s="3"/>
       <c r="BC99" s="3"/>
       <c r="BD99" s="3"/>
-    </row>
-    <row r="100" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE99" s="3"/>
+      <c r="BF99" s="3"/>
+      <c r="BG99" s="3"/>
+      <c r="BH99" s="3"/>
+    </row>
+    <row r="100" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6814,8 +7322,12 @@
       <c r="BB100" s="3"/>
       <c r="BC100" s="3"/>
       <c r="BD100" s="3"/>
-    </row>
-    <row r="101" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE100" s="3"/>
+      <c r="BF100" s="3"/>
+      <c r="BG100" s="3"/>
+      <c r="BH100" s="3"/>
+    </row>
+    <row r="101" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6870,8 +7382,12 @@
       <c r="BB101" s="3"/>
       <c r="BC101" s="3"/>
       <c r="BD101" s="3"/>
-    </row>
-    <row r="102" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE101" s="3"/>
+      <c r="BF101" s="3"/>
+      <c r="BG101" s="3"/>
+      <c r="BH101" s="3"/>
+    </row>
+    <row r="102" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6926,8 +7442,12 @@
       <c r="BB102" s="3"/>
       <c r="BC102" s="3"/>
       <c r="BD102" s="3"/>
-    </row>
-    <row r="103" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE102" s="3"/>
+      <c r="BF102" s="3"/>
+      <c r="BG102" s="3"/>
+      <c r="BH102" s="3"/>
+    </row>
+    <row r="103" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6982,8 +7502,12 @@
       <c r="BB103" s="3"/>
       <c r="BC103" s="3"/>
       <c r="BD103" s="3"/>
-    </row>
-    <row r="104" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE103" s="3"/>
+      <c r="BF103" s="3"/>
+      <c r="BG103" s="3"/>
+      <c r="BH103" s="3"/>
+    </row>
+    <row r="104" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7038,8 +7562,12 @@
       <c r="BB104" s="3"/>
       <c r="BC104" s="3"/>
       <c r="BD104" s="3"/>
-    </row>
-    <row r="105" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE104" s="3"/>
+      <c r="BF104" s="3"/>
+      <c r="BG104" s="3"/>
+      <c r="BH104" s="3"/>
+    </row>
+    <row r="105" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7094,8 +7622,12 @@
       <c r="BB105" s="3"/>
       <c r="BC105" s="3"/>
       <c r="BD105" s="3"/>
-    </row>
-    <row r="106" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE105" s="3"/>
+      <c r="BF105" s="3"/>
+      <c r="BG105" s="3"/>
+      <c r="BH105" s="3"/>
+    </row>
+    <row r="106" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7150,8 +7682,12 @@
       <c r="BB106" s="3"/>
       <c r="BC106" s="3"/>
       <c r="BD106" s="3"/>
-    </row>
-    <row r="107" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE106" s="3"/>
+      <c r="BF106" s="3"/>
+      <c r="BG106" s="3"/>
+      <c r="BH106" s="3"/>
+    </row>
+    <row r="107" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7206,8 +7742,12 @@
       <c r="BB107" s="3"/>
       <c r="BC107" s="3"/>
       <c r="BD107" s="3"/>
-    </row>
-    <row r="108" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE107" s="3"/>
+      <c r="BF107" s="3"/>
+      <c r="BG107" s="3"/>
+      <c r="BH107" s="3"/>
+    </row>
+    <row r="108" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7262,8 +7802,12 @@
       <c r="BB108" s="3"/>
       <c r="BC108" s="3"/>
       <c r="BD108" s="3"/>
-    </row>
-    <row r="109" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE108" s="3"/>
+      <c r="BF108" s="3"/>
+      <c r="BG108" s="3"/>
+      <c r="BH108" s="3"/>
+    </row>
+    <row r="109" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7318,8 +7862,12 @@
       <c r="BB109" s="3"/>
       <c r="BC109" s="3"/>
       <c r="BD109" s="3"/>
-    </row>
-    <row r="110" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE109" s="3"/>
+      <c r="BF109" s="3"/>
+      <c r="BG109" s="3"/>
+      <c r="BH109" s="3"/>
+    </row>
+    <row r="110" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7374,8 +7922,12 @@
       <c r="BB110" s="3"/>
       <c r="BC110" s="3"/>
       <c r="BD110" s="3"/>
-    </row>
-    <row r="111" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE110" s="3"/>
+      <c r="BF110" s="3"/>
+      <c r="BG110" s="3"/>
+      <c r="BH110" s="3"/>
+    </row>
+    <row r="111" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7430,8 +7982,12 @@
       <c r="BB111" s="3"/>
       <c r="BC111" s="3"/>
       <c r="BD111" s="3"/>
-    </row>
-    <row r="112" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE111" s="3"/>
+      <c r="BF111" s="3"/>
+      <c r="BG111" s="3"/>
+      <c r="BH111" s="3"/>
+    </row>
+    <row r="112" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7486,8 +8042,12 @@
       <c r="BB112" s="3"/>
       <c r="BC112" s="3"/>
       <c r="BD112" s="3"/>
-    </row>
-    <row r="113" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE112" s="3"/>
+      <c r="BF112" s="3"/>
+      <c r="BG112" s="3"/>
+      <c r="BH112" s="3"/>
+    </row>
+    <row r="113" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7542,8 +8102,12 @@
       <c r="BB113" s="3"/>
       <c r="BC113" s="3"/>
       <c r="BD113" s="3"/>
-    </row>
-    <row r="114" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE113" s="3"/>
+      <c r="BF113" s="3"/>
+      <c r="BG113" s="3"/>
+      <c r="BH113" s="3"/>
+    </row>
+    <row r="114" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7598,8 +8162,12 @@
       <c r="BB114" s="3"/>
       <c r="BC114" s="3"/>
       <c r="BD114" s="3"/>
-    </row>
-    <row r="115" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE114" s="3"/>
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+    </row>
+    <row r="115" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7654,8 +8222,12 @@
       <c r="BB115" s="3"/>
       <c r="BC115" s="3"/>
       <c r="BD115" s="3"/>
-    </row>
-    <row r="116" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE115" s="3"/>
+      <c r="BF115" s="3"/>
+      <c r="BG115" s="3"/>
+      <c r="BH115" s="3"/>
+    </row>
+    <row r="116" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7710,8 +8282,12 @@
       <c r="BB116" s="3"/>
       <c r="BC116" s="3"/>
       <c r="BD116" s="3"/>
-    </row>
-    <row r="117" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE116" s="3"/>
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+    </row>
+    <row r="117" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7766,8 +8342,12 @@
       <c r="BB117" s="3"/>
       <c r="BC117" s="3"/>
       <c r="BD117" s="3"/>
-    </row>
-    <row r="118" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE117" s="3"/>
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+    </row>
+    <row r="118" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7822,8 +8402,12 @@
       <c r="BB118" s="3"/>
       <c r="BC118" s="3"/>
       <c r="BD118" s="3"/>
-    </row>
-    <row r="119" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE118" s="3"/>
+      <c r="BF118" s="3"/>
+      <c r="BG118" s="3"/>
+      <c r="BH118" s="3"/>
+    </row>
+    <row r="119" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7878,8 +8462,12 @@
       <c r="BB119" s="3"/>
       <c r="BC119" s="3"/>
       <c r="BD119" s="3"/>
-    </row>
-    <row r="120" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE119" s="3"/>
+      <c r="BF119" s="3"/>
+      <c r="BG119" s="3"/>
+      <c r="BH119" s="3"/>
+    </row>
+    <row r="120" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7934,8 +8522,12 @@
       <c r="BB120" s="3"/>
       <c r="BC120" s="3"/>
       <c r="BD120" s="3"/>
-    </row>
-    <row r="121" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE120" s="3"/>
+      <c r="BF120" s="3"/>
+      <c r="BG120" s="3"/>
+      <c r="BH120" s="3"/>
+    </row>
+    <row r="121" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7990,8 +8582,12 @@
       <c r="BB121" s="3"/>
       <c r="BC121" s="3"/>
       <c r="BD121" s="3"/>
-    </row>
-    <row r="122" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE121" s="3"/>
+      <c r="BF121" s="3"/>
+      <c r="BG121" s="3"/>
+      <c r="BH121" s="3"/>
+    </row>
+    <row r="122" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8046,8 +8642,12 @@
       <c r="BB122" s="3"/>
       <c r="BC122" s="3"/>
       <c r="BD122" s="3"/>
-    </row>
-    <row r="123" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE122" s="3"/>
+      <c r="BF122" s="3"/>
+      <c r="BG122" s="3"/>
+      <c r="BH122" s="3"/>
+    </row>
+    <row r="123" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8102,8 +8702,12 @@
       <c r="BB123" s="3"/>
       <c r="BC123" s="3"/>
       <c r="BD123" s="3"/>
-    </row>
-    <row r="124" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE123" s="3"/>
+      <c r="BF123" s="3"/>
+      <c r="BG123" s="3"/>
+      <c r="BH123" s="3"/>
+    </row>
+    <row r="124" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8158,8 +8762,12 @@
       <c r="BB124" s="3"/>
       <c r="BC124" s="3"/>
       <c r="BD124" s="3"/>
-    </row>
-    <row r="125" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE124" s="3"/>
+      <c r="BF124" s="3"/>
+      <c r="BG124" s="3"/>
+      <c r="BH124" s="3"/>
+    </row>
+    <row r="125" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8214,8 +8822,12 @@
       <c r="BB125" s="3"/>
       <c r="BC125" s="3"/>
       <c r="BD125" s="3"/>
-    </row>
-    <row r="126" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE125" s="3"/>
+      <c r="BF125" s="3"/>
+      <c r="BG125" s="3"/>
+      <c r="BH125" s="3"/>
+    </row>
+    <row r="126" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8270,8 +8882,12 @@
       <c r="BB126" s="3"/>
       <c r="BC126" s="3"/>
       <c r="BD126" s="3"/>
-    </row>
-    <row r="127" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE126" s="3"/>
+      <c r="BF126" s="3"/>
+      <c r="BG126" s="3"/>
+      <c r="BH126" s="3"/>
+    </row>
+    <row r="127" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8326,8 +8942,12 @@
       <c r="BB127" s="3"/>
       <c r="BC127" s="3"/>
       <c r="BD127" s="3"/>
-    </row>
-    <row r="128" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE127" s="3"/>
+      <c r="BF127" s="3"/>
+      <c r="BG127" s="3"/>
+      <c r="BH127" s="3"/>
+    </row>
+    <row r="128" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8382,8 +9002,12 @@
       <c r="BB128" s="3"/>
       <c r="BC128" s="3"/>
       <c r="BD128" s="3"/>
-    </row>
-    <row r="129" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE128" s="3"/>
+      <c r="BF128" s="3"/>
+      <c r="BG128" s="3"/>
+      <c r="BH128" s="3"/>
+    </row>
+    <row r="129" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8438,8 +9062,12 @@
       <c r="BB129" s="3"/>
       <c r="BC129" s="3"/>
       <c r="BD129" s="3"/>
-    </row>
-    <row r="130" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE129" s="3"/>
+      <c r="BF129" s="3"/>
+      <c r="BG129" s="3"/>
+      <c r="BH129" s="3"/>
+    </row>
+    <row r="130" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8494,8 +9122,12 @@
       <c r="BB130" s="3"/>
       <c r="BC130" s="3"/>
       <c r="BD130" s="3"/>
-    </row>
-    <row r="131" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE130" s="3"/>
+      <c r="BF130" s="3"/>
+      <c r="BG130" s="3"/>
+      <c r="BH130" s="3"/>
+    </row>
+    <row r="131" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8550,8 +9182,12 @@
       <c r="BB131" s="3"/>
       <c r="BC131" s="3"/>
       <c r="BD131" s="3"/>
-    </row>
-    <row r="132" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE131" s="3"/>
+      <c r="BF131" s="3"/>
+      <c r="BG131" s="3"/>
+      <c r="BH131" s="3"/>
+    </row>
+    <row r="132" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8606,8 +9242,12 @@
       <c r="BB132" s="3"/>
       <c r="BC132" s="3"/>
       <c r="BD132" s="3"/>
-    </row>
-    <row r="133" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE132" s="3"/>
+      <c r="BF132" s="3"/>
+      <c r="BG132" s="3"/>
+      <c r="BH132" s="3"/>
+    </row>
+    <row r="133" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8662,8 +9302,12 @@
       <c r="BB133" s="3"/>
       <c r="BC133" s="3"/>
       <c r="BD133" s="3"/>
-    </row>
-    <row r="134" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE133" s="3"/>
+      <c r="BF133" s="3"/>
+      <c r="BG133" s="3"/>
+      <c r="BH133" s="3"/>
+    </row>
+    <row r="134" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8718,8 +9362,12 @@
       <c r="BB134" s="3"/>
       <c r="BC134" s="3"/>
       <c r="BD134" s="3"/>
-    </row>
-    <row r="135" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE134" s="3"/>
+      <c r="BF134" s="3"/>
+      <c r="BG134" s="3"/>
+      <c r="BH134" s="3"/>
+    </row>
+    <row r="135" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -8774,8 +9422,12 @@
       <c r="BB135" s="3"/>
       <c r="BC135" s="3"/>
       <c r="BD135" s="3"/>
-    </row>
-    <row r="136" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE135" s="3"/>
+      <c r="BF135" s="3"/>
+      <c r="BG135" s="3"/>
+      <c r="BH135" s="3"/>
+    </row>
+    <row r="136" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -8830,8 +9482,12 @@
       <c r="BB136" s="3"/>
       <c r="BC136" s="3"/>
       <c r="BD136" s="3"/>
-    </row>
-    <row r="137" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE136" s="3"/>
+      <c r="BF136" s="3"/>
+      <c r="BG136" s="3"/>
+      <c r="BH136" s="3"/>
+    </row>
+    <row r="137" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -8886,8 +9542,12 @@
       <c r="BB137" s="3"/>
       <c r="BC137" s="3"/>
       <c r="BD137" s="3"/>
-    </row>
-    <row r="138" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE137" s="3"/>
+      <c r="BF137" s="3"/>
+      <c r="BG137" s="3"/>
+      <c r="BH137" s="3"/>
+    </row>
+    <row r="138" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8942,8 +9602,12 @@
       <c r="BB138" s="3"/>
       <c r="BC138" s="3"/>
       <c r="BD138" s="3"/>
-    </row>
-    <row r="139" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE138" s="3"/>
+      <c r="BF138" s="3"/>
+      <c r="BG138" s="3"/>
+      <c r="BH138" s="3"/>
+    </row>
+    <row r="139" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -8998,8 +9662,12 @@
       <c r="BB139" s="3"/>
       <c r="BC139" s="3"/>
       <c r="BD139" s="3"/>
-    </row>
-    <row r="140" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE139" s="3"/>
+      <c r="BF139" s="3"/>
+      <c r="BG139" s="3"/>
+      <c r="BH139" s="3"/>
+    </row>
+    <row r="140" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9054,8 +9722,12 @@
       <c r="BB140" s="3"/>
       <c r="BC140" s="3"/>
       <c r="BD140" s="3"/>
-    </row>
-    <row r="141" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE140" s="3"/>
+      <c r="BF140" s="3"/>
+      <c r="BG140" s="3"/>
+      <c r="BH140" s="3"/>
+    </row>
+    <row r="141" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9110,8 +9782,12 @@
       <c r="BB141" s="3"/>
       <c r="BC141" s="3"/>
       <c r="BD141" s="3"/>
-    </row>
-    <row r="142" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE141" s="3"/>
+      <c r="BF141" s="3"/>
+      <c r="BG141" s="3"/>
+      <c r="BH141" s="3"/>
+    </row>
+    <row r="142" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9166,8 +9842,12 @@
       <c r="BB142" s="3"/>
       <c r="BC142" s="3"/>
       <c r="BD142" s="3"/>
-    </row>
-    <row r="143" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE142" s="3"/>
+      <c r="BF142" s="3"/>
+      <c r="BG142" s="3"/>
+      <c r="BH142" s="3"/>
+    </row>
+    <row r="143" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9222,8 +9902,12 @@
       <c r="BB143" s="3"/>
       <c r="BC143" s="3"/>
       <c r="BD143" s="3"/>
-    </row>
-    <row r="144" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE143" s="3"/>
+      <c r="BF143" s="3"/>
+      <c r="BG143" s="3"/>
+      <c r="BH143" s="3"/>
+    </row>
+    <row r="144" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9278,8 +9962,12 @@
       <c r="BB144" s="3"/>
       <c r="BC144" s="3"/>
       <c r="BD144" s="3"/>
-    </row>
-    <row r="145" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE144" s="3"/>
+      <c r="BF144" s="3"/>
+      <c r="BG144" s="3"/>
+      <c r="BH144" s="3"/>
+    </row>
+    <row r="145" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9334,8 +10022,12 @@
       <c r="BB145" s="3"/>
       <c r="BC145" s="3"/>
       <c r="BD145" s="3"/>
-    </row>
-    <row r="146" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE145" s="3"/>
+      <c r="BF145" s="3"/>
+      <c r="BG145" s="3"/>
+      <c r="BH145" s="3"/>
+    </row>
+    <row r="146" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9390,8 +10082,12 @@
       <c r="BB146" s="3"/>
       <c r="BC146" s="3"/>
       <c r="BD146" s="3"/>
-    </row>
-    <row r="147" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE146" s="3"/>
+      <c r="BF146" s="3"/>
+      <c r="BG146" s="3"/>
+      <c r="BH146" s="3"/>
+    </row>
+    <row r="147" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9446,8 +10142,12 @@
       <c r="BB147" s="3"/>
       <c r="BC147" s="3"/>
       <c r="BD147" s="3"/>
-    </row>
-    <row r="148" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE147" s="3"/>
+      <c r="BF147" s="3"/>
+      <c r="BG147" s="3"/>
+      <c r="BH147" s="3"/>
+    </row>
+    <row r="148" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9502,8 +10202,12 @@
       <c r="BB148" s="3"/>
       <c r="BC148" s="3"/>
       <c r="BD148" s="3"/>
-    </row>
-    <row r="149" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE148" s="3"/>
+      <c r="BF148" s="3"/>
+      <c r="BG148" s="3"/>
+      <c r="BH148" s="3"/>
+    </row>
+    <row r="149" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9558,8 +10262,12 @@
       <c r="BB149" s="3"/>
       <c r="BC149" s="3"/>
       <c r="BD149" s="3"/>
-    </row>
-    <row r="150" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE149" s="3"/>
+      <c r="BF149" s="3"/>
+      <c r="BG149" s="3"/>
+      <c r="BH149" s="3"/>
+    </row>
+    <row r="150" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9614,8 +10322,12 @@
       <c r="BB150" s="3"/>
       <c r="BC150" s="3"/>
       <c r="BD150" s="3"/>
-    </row>
-    <row r="151" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE150" s="3"/>
+      <c r="BF150" s="3"/>
+      <c r="BG150" s="3"/>
+      <c r="BH150" s="3"/>
+    </row>
+    <row r="151" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9670,8 +10382,12 @@
       <c r="BB151" s="3"/>
       <c r="BC151" s="3"/>
       <c r="BD151" s="3"/>
-    </row>
-    <row r="152" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE151" s="3"/>
+      <c r="BF151" s="3"/>
+      <c r="BG151" s="3"/>
+      <c r="BH151" s="3"/>
+    </row>
+    <row r="152" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -9726,8 +10442,12 @@
       <c r="BB152" s="3"/>
       <c r="BC152" s="3"/>
       <c r="BD152" s="3"/>
-    </row>
-    <row r="153" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE152" s="3"/>
+      <c r="BF152" s="3"/>
+      <c r="BG152" s="3"/>
+      <c r="BH152" s="3"/>
+    </row>
+    <row r="153" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -9782,8 +10502,12 @@
       <c r="BB153" s="3"/>
       <c r="BC153" s="3"/>
       <c r="BD153" s="3"/>
-    </row>
-    <row r="154" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE153" s="3"/>
+      <c r="BF153" s="3"/>
+      <c r="BG153" s="3"/>
+      <c r="BH153" s="3"/>
+    </row>
+    <row r="154" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9838,8 +10562,12 @@
       <c r="BB154" s="3"/>
       <c r="BC154" s="3"/>
       <c r="BD154" s="3"/>
-    </row>
-    <row r="155" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE154" s="3"/>
+      <c r="BF154" s="3"/>
+      <c r="BG154" s="3"/>
+      <c r="BH154" s="3"/>
+    </row>
+    <row r="155" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -9894,8 +10622,12 @@
       <c r="BB155" s="3"/>
       <c r="BC155" s="3"/>
       <c r="BD155" s="3"/>
-    </row>
-    <row r="156" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE155" s="3"/>
+      <c r="BF155" s="3"/>
+      <c r="BG155" s="3"/>
+      <c r="BH155" s="3"/>
+    </row>
+    <row r="156" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -9950,8 +10682,12 @@
       <c r="BB156" s="3"/>
       <c r="BC156" s="3"/>
       <c r="BD156" s="3"/>
-    </row>
-    <row r="157" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE156" s="3"/>
+      <c r="BF156" s="3"/>
+      <c r="BG156" s="3"/>
+      <c r="BH156" s="3"/>
+    </row>
+    <row r="157" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10006,8 +10742,12 @@
       <c r="BB157" s="3"/>
       <c r="BC157" s="3"/>
       <c r="BD157" s="3"/>
-    </row>
-    <row r="158" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE157" s="3"/>
+      <c r="BF157" s="3"/>
+      <c r="BG157" s="3"/>
+      <c r="BH157" s="3"/>
+    </row>
+    <row r="158" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10062,8 +10802,12 @@
       <c r="BB158" s="3"/>
       <c r="BC158" s="3"/>
       <c r="BD158" s="3"/>
-    </row>
-    <row r="159" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE158" s="3"/>
+      <c r="BF158" s="3"/>
+      <c r="BG158" s="3"/>
+      <c r="BH158" s="3"/>
+    </row>
+    <row r="159" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10118,8 +10862,12 @@
       <c r="BB159" s="3"/>
       <c r="BC159" s="3"/>
       <c r="BD159" s="3"/>
-    </row>
-    <row r="160" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE159" s="3"/>
+      <c r="BF159" s="3"/>
+      <c r="BG159" s="3"/>
+      <c r="BH159" s="3"/>
+    </row>
+    <row r="160" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10174,8 +10922,12 @@
       <c r="BB160" s="3"/>
       <c r="BC160" s="3"/>
       <c r="BD160" s="3"/>
-    </row>
-    <row r="161" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE160" s="3"/>
+      <c r="BF160" s="3"/>
+      <c r="BG160" s="3"/>
+      <c r="BH160" s="3"/>
+    </row>
+    <row r="161" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10230,8 +10982,12 @@
       <c r="BB161" s="3"/>
       <c r="BC161" s="3"/>
       <c r="BD161" s="3"/>
-    </row>
-    <row r="162" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE161" s="3"/>
+      <c r="BF161" s="3"/>
+      <c r="BG161" s="3"/>
+      <c r="BH161" s="3"/>
+    </row>
+    <row r="162" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10286,8 +11042,12 @@
       <c r="BB162" s="3"/>
       <c r="BC162" s="3"/>
       <c r="BD162" s="3"/>
-    </row>
-    <row r="163" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE162" s="3"/>
+      <c r="BF162" s="3"/>
+      <c r="BG162" s="3"/>
+      <c r="BH162" s="3"/>
+    </row>
+    <row r="163" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10342,8 +11102,12 @@
       <c r="BB163" s="3"/>
       <c r="BC163" s="3"/>
       <c r="BD163" s="3"/>
-    </row>
-    <row r="164" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE163" s="3"/>
+      <c r="BF163" s="3"/>
+      <c r="BG163" s="3"/>
+      <c r="BH163" s="3"/>
+    </row>
+    <row r="164" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10398,8 +11162,12 @@
       <c r="BB164" s="3"/>
       <c r="BC164" s="3"/>
       <c r="BD164" s="3"/>
-    </row>
-    <row r="165" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE164" s="3"/>
+      <c r="BF164" s="3"/>
+      <c r="BG164" s="3"/>
+      <c r="BH164" s="3"/>
+    </row>
+    <row r="165" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -10454,8 +11222,12 @@
       <c r="BB165" s="3"/>
       <c r="BC165" s="3"/>
       <c r="BD165" s="3"/>
-    </row>
-    <row r="166" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE165" s="3"/>
+      <c r="BF165" s="3"/>
+      <c r="BG165" s="3"/>
+      <c r="BH165" s="3"/>
+    </row>
+    <row r="166" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -10510,8 +11282,12 @@
       <c r="BB166" s="3"/>
       <c r="BC166" s="3"/>
       <c r="BD166" s="3"/>
-    </row>
-    <row r="167" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE166" s="3"/>
+      <c r="BF166" s="3"/>
+      <c r="BG166" s="3"/>
+      <c r="BH166" s="3"/>
+    </row>
+    <row r="167" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -10566,8 +11342,12 @@
       <c r="BB167" s="3"/>
       <c r="BC167" s="3"/>
       <c r="BD167" s="3"/>
-    </row>
-    <row r="168" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE167" s="3"/>
+      <c r="BF167" s="3"/>
+      <c r="BG167" s="3"/>
+      <c r="BH167" s="3"/>
+    </row>
+    <row r="168" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -10622,8 +11402,12 @@
       <c r="BB168" s="3"/>
       <c r="BC168" s="3"/>
       <c r="BD168" s="3"/>
-    </row>
-    <row r="169" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE168" s="3"/>
+      <c r="BF168" s="3"/>
+      <c r="BG168" s="3"/>
+      <c r="BH168" s="3"/>
+    </row>
+    <row r="169" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -10678,8 +11462,12 @@
       <c r="BB169" s="3"/>
       <c r="BC169" s="3"/>
       <c r="BD169" s="3"/>
-    </row>
-    <row r="170" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE169" s="3"/>
+      <c r="BF169" s="3"/>
+      <c r="BG169" s="3"/>
+      <c r="BH169" s="3"/>
+    </row>
+    <row r="170" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -10734,8 +11522,12 @@
       <c r="BB170" s="3"/>
       <c r="BC170" s="3"/>
       <c r="BD170" s="3"/>
-    </row>
-    <row r="171" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE170" s="3"/>
+      <c r="BF170" s="3"/>
+      <c r="BG170" s="3"/>
+      <c r="BH170" s="3"/>
+    </row>
+    <row r="171" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -10790,8 +11582,12 @@
       <c r="BB171" s="3"/>
       <c r="BC171" s="3"/>
       <c r="BD171" s="3"/>
-    </row>
-    <row r="172" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE171" s="3"/>
+      <c r="BF171" s="3"/>
+      <c r="BG171" s="3"/>
+      <c r="BH171" s="3"/>
+    </row>
+    <row r="172" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -10846,8 +11642,12 @@
       <c r="BB172" s="3"/>
       <c r="BC172" s="3"/>
       <c r="BD172" s="3"/>
-    </row>
-    <row r="173" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE172" s="3"/>
+      <c r="BF172" s="3"/>
+      <c r="BG172" s="3"/>
+      <c r="BH172" s="3"/>
+    </row>
+    <row r="173" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -10902,8 +11702,12 @@
       <c r="BB173" s="3"/>
       <c r="BC173" s="3"/>
       <c r="BD173" s="3"/>
-    </row>
-    <row r="174" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE173" s="3"/>
+      <c r="BF173" s="3"/>
+      <c r="BG173" s="3"/>
+      <c r="BH173" s="3"/>
+    </row>
+    <row r="174" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -10958,8 +11762,12 @@
       <c r="BB174" s="3"/>
       <c r="BC174" s="3"/>
       <c r="BD174" s="3"/>
-    </row>
-    <row r="175" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE174" s="3"/>
+      <c r="BF174" s="3"/>
+      <c r="BG174" s="3"/>
+      <c r="BH174" s="3"/>
+    </row>
+    <row r="175" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11014,8 +11822,12 @@
       <c r="BB175" s="3"/>
       <c r="BC175" s="3"/>
       <c r="BD175" s="3"/>
-    </row>
-    <row r="176" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE175" s="3"/>
+      <c r="BF175" s="3"/>
+      <c r="BG175" s="3"/>
+      <c r="BH175" s="3"/>
+    </row>
+    <row r="176" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11070,8 +11882,12 @@
       <c r="BB176" s="3"/>
       <c r="BC176" s="3"/>
       <c r="BD176" s="3"/>
-    </row>
-    <row r="177" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE176" s="3"/>
+      <c r="BF176" s="3"/>
+      <c r="BG176" s="3"/>
+      <c r="BH176" s="3"/>
+    </row>
+    <row r="177" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11126,8 +11942,12 @@
       <c r="BB177" s="3"/>
       <c r="BC177" s="3"/>
       <c r="BD177" s="3"/>
-    </row>
-    <row r="178" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE177" s="3"/>
+      <c r="BF177" s="3"/>
+      <c r="BG177" s="3"/>
+      <c r="BH177" s="3"/>
+    </row>
+    <row r="178" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11182,8 +12002,12 @@
       <c r="BB178" s="3"/>
       <c r="BC178" s="3"/>
       <c r="BD178" s="3"/>
-    </row>
-    <row r="179" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE178" s="3"/>
+      <c r="BF178" s="3"/>
+      <c r="BG178" s="3"/>
+      <c r="BH178" s="3"/>
+    </row>
+    <row r="179" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11238,8 +12062,12 @@
       <c r="BB179" s="3"/>
       <c r="BC179" s="3"/>
       <c r="BD179" s="3"/>
-    </row>
-    <row r="180" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE179" s="3"/>
+      <c r="BF179" s="3"/>
+      <c r="BG179" s="3"/>
+      <c r="BH179" s="3"/>
+    </row>
+    <row r="180" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11294,8 +12122,12 @@
       <c r="BB180" s="3"/>
       <c r="BC180" s="3"/>
       <c r="BD180" s="3"/>
-    </row>
-    <row r="181" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE180" s="3"/>
+      <c r="BF180" s="3"/>
+      <c r="BG180" s="3"/>
+      <c r="BH180" s="3"/>
+    </row>
+    <row r="181" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -11350,8 +12182,12 @@
       <c r="BB181" s="3"/>
       <c r="BC181" s="3"/>
       <c r="BD181" s="3"/>
-    </row>
-    <row r="182" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE181" s="3"/>
+      <c r="BF181" s="3"/>
+      <c r="BG181" s="3"/>
+      <c r="BH181" s="3"/>
+    </row>
+    <row r="182" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -11406,8 +12242,12 @@
       <c r="BB182" s="3"/>
       <c r="BC182" s="3"/>
       <c r="BD182" s="3"/>
-    </row>
-    <row r="183" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE182" s="3"/>
+      <c r="BF182" s="3"/>
+      <c r="BG182" s="3"/>
+      <c r="BH182" s="3"/>
+    </row>
+    <row r="183" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -11462,8 +12302,12 @@
       <c r="BB183" s="3"/>
       <c r="BC183" s="3"/>
       <c r="BD183" s="3"/>
-    </row>
-    <row r="184" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE183" s="3"/>
+      <c r="BF183" s="3"/>
+      <c r="BG183" s="3"/>
+      <c r="BH183" s="3"/>
+    </row>
+    <row r="184" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -11518,8 +12362,12 @@
       <c r="BB184" s="3"/>
       <c r="BC184" s="3"/>
       <c r="BD184" s="3"/>
-    </row>
-    <row r="185" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE184" s="3"/>
+      <c r="BF184" s="3"/>
+      <c r="BG184" s="3"/>
+      <c r="BH184" s="3"/>
+    </row>
+    <row r="185" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -11574,8 +12422,12 @@
       <c r="BB185" s="3"/>
       <c r="BC185" s="3"/>
       <c r="BD185" s="3"/>
-    </row>
-    <row r="186" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE185" s="3"/>
+      <c r="BF185" s="3"/>
+      <c r="BG185" s="3"/>
+      <c r="BH185" s="3"/>
+    </row>
+    <row r="186" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -11630,8 +12482,12 @@
       <c r="BB186" s="3"/>
       <c r="BC186" s="3"/>
       <c r="BD186" s="3"/>
-    </row>
-    <row r="187" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE186" s="3"/>
+      <c r="BF186" s="3"/>
+      <c r="BG186" s="3"/>
+      <c r="BH186" s="3"/>
+    </row>
+    <row r="187" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -11686,8 +12542,12 @@
       <c r="BB187" s="3"/>
       <c r="BC187" s="3"/>
       <c r="BD187" s="3"/>
-    </row>
-    <row r="188" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE187" s="3"/>
+      <c r="BF187" s="3"/>
+      <c r="BG187" s="3"/>
+      <c r="BH187" s="3"/>
+    </row>
+    <row r="188" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -11742,8 +12602,12 @@
       <c r="BB188" s="3"/>
       <c r="BC188" s="3"/>
       <c r="BD188" s="3"/>
-    </row>
-    <row r="189" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE188" s="3"/>
+      <c r="BF188" s="3"/>
+      <c r="BG188" s="3"/>
+      <c r="BH188" s="3"/>
+    </row>
+    <row r="189" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -11798,8 +12662,12 @@
       <c r="BB189" s="3"/>
       <c r="BC189" s="3"/>
       <c r="BD189" s="3"/>
-    </row>
-    <row r="190" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE189" s="3"/>
+      <c r="BF189" s="3"/>
+      <c r="BG189" s="3"/>
+      <c r="BH189" s="3"/>
+    </row>
+    <row r="190" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -11854,8 +12722,12 @@
       <c r="BB190" s="3"/>
       <c r="BC190" s="3"/>
       <c r="BD190" s="3"/>
-    </row>
-    <row r="191" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE190" s="3"/>
+      <c r="BF190" s="3"/>
+      <c r="BG190" s="3"/>
+      <c r="BH190" s="3"/>
+    </row>
+    <row r="191" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -11910,8 +12782,12 @@
       <c r="BB191" s="3"/>
       <c r="BC191" s="3"/>
       <c r="BD191" s="3"/>
-    </row>
-    <row r="192" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE191" s="3"/>
+      <c r="BF191" s="3"/>
+      <c r="BG191" s="3"/>
+      <c r="BH191" s="3"/>
+    </row>
+    <row r="192" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -11966,8 +12842,12 @@
       <c r="BB192" s="3"/>
       <c r="BC192" s="3"/>
       <c r="BD192" s="3"/>
-    </row>
-    <row r="193" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE192" s="3"/>
+      <c r="BF192" s="3"/>
+      <c r="BG192" s="3"/>
+      <c r="BH192" s="3"/>
+    </row>
+    <row r="193" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12022,8 +12902,12 @@
       <c r="BB193" s="3"/>
       <c r="BC193" s="3"/>
       <c r="BD193" s="3"/>
-    </row>
-    <row r="194" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE193" s="3"/>
+      <c r="BF193" s="3"/>
+      <c r="BG193" s="3"/>
+      <c r="BH193" s="3"/>
+    </row>
+    <row r="194" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12078,8 +12962,12 @@
       <c r="BB194" s="3"/>
       <c r="BC194" s="3"/>
       <c r="BD194" s="3"/>
-    </row>
-    <row r="195" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE194" s="3"/>
+      <c r="BF194" s="3"/>
+      <c r="BG194" s="3"/>
+      <c r="BH194" s="3"/>
+    </row>
+    <row r="195" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12134,8 +13022,12 @@
       <c r="BB195" s="3"/>
       <c r="BC195" s="3"/>
       <c r="BD195" s="3"/>
-    </row>
-    <row r="196" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE195" s="3"/>
+      <c r="BF195" s="3"/>
+      <c r="BG195" s="3"/>
+      <c r="BH195" s="3"/>
+    </row>
+    <row r="196" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12190,8 +13082,12 @@
       <c r="BB196" s="3"/>
       <c r="BC196" s="3"/>
       <c r="BD196" s="3"/>
-    </row>
-    <row r="197" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE196" s="3"/>
+      <c r="BF196" s="3"/>
+      <c r="BG196" s="3"/>
+      <c r="BH196" s="3"/>
+    </row>
+    <row r="197" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12246,8 +13142,12 @@
       <c r="BB197" s="3"/>
       <c r="BC197" s="3"/>
       <c r="BD197" s="3"/>
-    </row>
-    <row r="198" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE197" s="3"/>
+      <c r="BF197" s="3"/>
+      <c r="BG197" s="3"/>
+      <c r="BH197" s="3"/>
+    </row>
+    <row r="198" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -12302,8 +13202,12 @@
       <c r="BB198" s="3"/>
       <c r="BC198" s="3"/>
       <c r="BD198" s="3"/>
-    </row>
-    <row r="199" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE198" s="3"/>
+      <c r="BF198" s="3"/>
+      <c r="BG198" s="3"/>
+      <c r="BH198" s="3"/>
+    </row>
+    <row r="199" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -12358,8 +13262,12 @@
       <c r="BB199" s="3"/>
       <c r="BC199" s="3"/>
       <c r="BD199" s="3"/>
-    </row>
-    <row r="200" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE199" s="3"/>
+      <c r="BF199" s="3"/>
+      <c r="BG199" s="3"/>
+      <c r="BH199" s="3"/>
+    </row>
+    <row r="200" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -12414,8 +13322,12 @@
       <c r="BB200" s="3"/>
       <c r="BC200" s="3"/>
       <c r="BD200" s="3"/>
-    </row>
-    <row r="201" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE200" s="3"/>
+      <c r="BF200" s="3"/>
+      <c r="BG200" s="3"/>
+      <c r="BH200" s="3"/>
+    </row>
+    <row r="201" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12470,8 +13382,12 @@
       <c r="BB201" s="3"/>
       <c r="BC201" s="3"/>
       <c r="BD201" s="3"/>
-    </row>
-    <row r="202" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE201" s="3"/>
+      <c r="BF201" s="3"/>
+      <c r="BG201" s="3"/>
+      <c r="BH201" s="3"/>
+    </row>
+    <row r="202" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -12526,8 +13442,12 @@
       <c r="BB202" s="3"/>
       <c r="BC202" s="3"/>
       <c r="BD202" s="3"/>
-    </row>
-    <row r="203" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE202" s="3"/>
+      <c r="BF202" s="3"/>
+      <c r="BG202" s="3"/>
+      <c r="BH202" s="3"/>
+    </row>
+    <row r="203" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -12582,8 +13502,12 @@
       <c r="BB203" s="3"/>
       <c r="BC203" s="3"/>
       <c r="BD203" s="3"/>
-    </row>
-    <row r="204" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE203" s="3"/>
+      <c r="BF203" s="3"/>
+      <c r="BG203" s="3"/>
+      <c r="BH203" s="3"/>
+    </row>
+    <row r="204" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -12638,8 +13562,12 @@
       <c r="BB204" s="3"/>
       <c r="BC204" s="3"/>
       <c r="BD204" s="3"/>
-    </row>
-    <row r="205" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE204" s="3"/>
+      <c r="BF204" s="3"/>
+      <c r="BG204" s="3"/>
+      <c r="BH204" s="3"/>
+    </row>
+    <row r="205" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -12694,8 +13622,12 @@
       <c r="BB205" s="3"/>
       <c r="BC205" s="3"/>
       <c r="BD205" s="3"/>
-    </row>
-    <row r="206" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE205" s="3"/>
+      <c r="BF205" s="3"/>
+      <c r="BG205" s="3"/>
+      <c r="BH205" s="3"/>
+    </row>
+    <row r="206" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -12750,8 +13682,12 @@
       <c r="BB206" s="3"/>
       <c r="BC206" s="3"/>
       <c r="BD206" s="3"/>
-    </row>
-    <row r="207" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE206" s="3"/>
+      <c r="BF206" s="3"/>
+      <c r="BG206" s="3"/>
+      <c r="BH206" s="3"/>
+    </row>
+    <row r="207" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -12806,8 +13742,12 @@
       <c r="BB207" s="3"/>
       <c r="BC207" s="3"/>
       <c r="BD207" s="3"/>
-    </row>
-    <row r="208" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE207" s="3"/>
+      <c r="BF207" s="3"/>
+      <c r="BG207" s="3"/>
+      <c r="BH207" s="3"/>
+    </row>
+    <row r="208" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -12862,8 +13802,12 @@
       <c r="BB208" s="3"/>
       <c r="BC208" s="3"/>
       <c r="BD208" s="3"/>
-    </row>
-    <row r="209" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE208" s="3"/>
+      <c r="BF208" s="3"/>
+      <c r="BG208" s="3"/>
+      <c r="BH208" s="3"/>
+    </row>
+    <row r="209" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -12918,8 +13862,12 @@
       <c r="BB209" s="3"/>
       <c r="BC209" s="3"/>
       <c r="BD209" s="3"/>
-    </row>
-    <row r="210" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE209" s="3"/>
+      <c r="BF209" s="3"/>
+      <c r="BG209" s="3"/>
+      <c r="BH209" s="3"/>
+    </row>
+    <row r="210" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -12974,8 +13922,12 @@
       <c r="BB210" s="3"/>
       <c r="BC210" s="3"/>
       <c r="BD210" s="3"/>
-    </row>
-    <row r="211" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE210" s="3"/>
+      <c r="BF210" s="3"/>
+      <c r="BG210" s="3"/>
+      <c r="BH210" s="3"/>
+    </row>
+    <row r="211" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13030,8 +13982,12 @@
       <c r="BB211" s="3"/>
       <c r="BC211" s="3"/>
       <c r="BD211" s="3"/>
-    </row>
-    <row r="212" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE211" s="3"/>
+      <c r="BF211" s="3"/>
+      <c r="BG211" s="3"/>
+      <c r="BH211" s="3"/>
+    </row>
+    <row r="212" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -13086,8 +14042,12 @@
       <c r="BB212" s="3"/>
       <c r="BC212" s="3"/>
       <c r="BD212" s="3"/>
-    </row>
-    <row r="213" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE212" s="3"/>
+      <c r="BF212" s="3"/>
+      <c r="BG212" s="3"/>
+      <c r="BH212" s="3"/>
+    </row>
+    <row r="213" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -13142,8 +14102,12 @@
       <c r="BB213" s="3"/>
       <c r="BC213" s="3"/>
       <c r="BD213" s="3"/>
-    </row>
-    <row r="214" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE213" s="3"/>
+      <c r="BF213" s="3"/>
+      <c r="BG213" s="3"/>
+      <c r="BH213" s="3"/>
+    </row>
+    <row r="214" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -13198,8 +14162,12 @@
       <c r="BB214" s="3"/>
       <c r="BC214" s="3"/>
       <c r="BD214" s="3"/>
-    </row>
-    <row r="215" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE214" s="3"/>
+      <c r="BF214" s="3"/>
+      <c r="BG214" s="3"/>
+      <c r="BH214" s="3"/>
+    </row>
+    <row r="215" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -13254,8 +14222,12 @@
       <c r="BB215" s="3"/>
       <c r="BC215" s="3"/>
       <c r="BD215" s="3"/>
-    </row>
-    <row r="216" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE215" s="3"/>
+      <c r="BF215" s="3"/>
+      <c r="BG215" s="3"/>
+      <c r="BH215" s="3"/>
+    </row>
+    <row r="216" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -13310,8 +14282,12 @@
       <c r="BB216" s="3"/>
       <c r="BC216" s="3"/>
       <c r="BD216" s="3"/>
-    </row>
-    <row r="217" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE216" s="3"/>
+      <c r="BF216" s="3"/>
+      <c r="BG216" s="3"/>
+      <c r="BH216" s="3"/>
+    </row>
+    <row r="217" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -13366,8 +14342,12 @@
       <c r="BB217" s="3"/>
       <c r="BC217" s="3"/>
       <c r="BD217" s="3"/>
-    </row>
-    <row r="218" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE217" s="3"/>
+      <c r="BF217" s="3"/>
+      <c r="BG217" s="3"/>
+      <c r="BH217" s="3"/>
+    </row>
+    <row r="218" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -13422,8 +14402,12 @@
       <c r="BB218" s="3"/>
       <c r="BC218" s="3"/>
       <c r="BD218" s="3"/>
-    </row>
-    <row r="219" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE218" s="3"/>
+      <c r="BF218" s="3"/>
+      <c r="BG218" s="3"/>
+      <c r="BH218" s="3"/>
+    </row>
+    <row r="219" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -13478,8 +14462,12 @@
       <c r="BB219" s="3"/>
       <c r="BC219" s="3"/>
       <c r="BD219" s="3"/>
-    </row>
-    <row r="220" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE219" s="3"/>
+      <c r="BF219" s="3"/>
+      <c r="BG219" s="3"/>
+      <c r="BH219" s="3"/>
+    </row>
+    <row r="220" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -13534,8 +14522,12 @@
       <c r="BB220" s="3"/>
       <c r="BC220" s="3"/>
       <c r="BD220" s="3"/>
-    </row>
-    <row r="221" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE220" s="3"/>
+      <c r="BF220" s="3"/>
+      <c r="BG220" s="3"/>
+      <c r="BH220" s="3"/>
+    </row>
+    <row r="221" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -13590,8 +14582,12 @@
       <c r="BB221" s="3"/>
       <c r="BC221" s="3"/>
       <c r="BD221" s="3"/>
-    </row>
-    <row r="222" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE221" s="3"/>
+      <c r="BF221" s="3"/>
+      <c r="BG221" s="3"/>
+      <c r="BH221" s="3"/>
+    </row>
+    <row r="222" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -13646,8 +14642,12 @@
       <c r="BB222" s="3"/>
       <c r="BC222" s="3"/>
       <c r="BD222" s="3"/>
-    </row>
-    <row r="223" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE222" s="3"/>
+      <c r="BF222" s="3"/>
+      <c r="BG222" s="3"/>
+      <c r="BH222" s="3"/>
+    </row>
+    <row r="223" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -13702,8 +14702,12 @@
       <c r="BB223" s="3"/>
       <c r="BC223" s="3"/>
       <c r="BD223" s="3"/>
-    </row>
-    <row r="224" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE223" s="3"/>
+      <c r="BF223" s="3"/>
+      <c r="BG223" s="3"/>
+      <c r="BH223" s="3"/>
+    </row>
+    <row r="224" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -13758,8 +14762,12 @@
       <c r="BB224" s="3"/>
       <c r="BC224" s="3"/>
       <c r="BD224" s="3"/>
-    </row>
-    <row r="225" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE224" s="3"/>
+      <c r="BF224" s="3"/>
+      <c r="BG224" s="3"/>
+      <c r="BH224" s="3"/>
+    </row>
+    <row r="225" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -13814,8 +14822,12 @@
       <c r="BB225" s="3"/>
       <c r="BC225" s="3"/>
       <c r="BD225" s="3"/>
-    </row>
-    <row r="226" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE225" s="3"/>
+      <c r="BF225" s="3"/>
+      <c r="BG225" s="3"/>
+      <c r="BH225" s="3"/>
+    </row>
+    <row r="226" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -13870,8 +14882,12 @@
       <c r="BB226" s="3"/>
       <c r="BC226" s="3"/>
       <c r="BD226" s="3"/>
-    </row>
-    <row r="227" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE226" s="3"/>
+      <c r="BF226" s="3"/>
+      <c r="BG226" s="3"/>
+      <c r="BH226" s="3"/>
+    </row>
+    <row r="227" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -13926,8 +14942,12 @@
       <c r="BB227" s="3"/>
       <c r="BC227" s="3"/>
       <c r="BD227" s="3"/>
-    </row>
-    <row r="228" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE227" s="3"/>
+      <c r="BF227" s="3"/>
+      <c r="BG227" s="3"/>
+      <c r="BH227" s="3"/>
+    </row>
+    <row r="228" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13982,8 +15002,12 @@
       <c r="BB228" s="3"/>
       <c r="BC228" s="3"/>
       <c r="BD228" s="3"/>
-    </row>
-    <row r="229" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE228" s="3"/>
+      <c r="BF228" s="3"/>
+      <c r="BG228" s="3"/>
+      <c r="BH228" s="3"/>
+    </row>
+    <row r="229" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -14038,8 +15062,12 @@
       <c r="BB229" s="3"/>
       <c r="BC229" s="3"/>
       <c r="BD229" s="3"/>
-    </row>
-    <row r="230" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE229" s="3"/>
+      <c r="BF229" s="3"/>
+      <c r="BG229" s="3"/>
+      <c r="BH229" s="3"/>
+    </row>
+    <row r="230" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -14094,8 +15122,12 @@
       <c r="BB230" s="3"/>
       <c r="BC230" s="3"/>
       <c r="BD230" s="3"/>
-    </row>
-    <row r="231" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE230" s="3"/>
+      <c r="BF230" s="3"/>
+      <c r="BG230" s="3"/>
+      <c r="BH230" s="3"/>
+    </row>
+    <row r="231" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -14150,8 +15182,12 @@
       <c r="BB231" s="3"/>
       <c r="BC231" s="3"/>
       <c r="BD231" s="3"/>
-    </row>
-    <row r="232" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE231" s="3"/>
+      <c r="BF231" s="3"/>
+      <c r="BG231" s="3"/>
+      <c r="BH231" s="3"/>
+    </row>
+    <row r="232" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -14206,8 +15242,12 @@
       <c r="BB232" s="3"/>
       <c r="BC232" s="3"/>
       <c r="BD232" s="3"/>
-    </row>
-    <row r="233" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE232" s="3"/>
+      <c r="BF232" s="3"/>
+      <c r="BG232" s="3"/>
+      <c r="BH232" s="3"/>
+    </row>
+    <row r="233" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -14262,8 +15302,12 @@
       <c r="BB233" s="3"/>
       <c r="BC233" s="3"/>
       <c r="BD233" s="3"/>
-    </row>
-    <row r="234" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE233" s="3"/>
+      <c r="BF233" s="3"/>
+      <c r="BG233" s="3"/>
+      <c r="BH233" s="3"/>
+    </row>
+    <row r="234" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -14318,8 +15362,12 @@
       <c r="BB234" s="3"/>
       <c r="BC234" s="3"/>
       <c r="BD234" s="3"/>
-    </row>
-    <row r="235" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE234" s="3"/>
+      <c r="BF234" s="3"/>
+      <c r="BG234" s="3"/>
+      <c r="BH234" s="3"/>
+    </row>
+    <row r="235" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -14374,8 +15422,12 @@
       <c r="BB235" s="3"/>
       <c r="BC235" s="3"/>
       <c r="BD235" s="3"/>
-    </row>
-    <row r="236" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE235" s="3"/>
+      <c r="BF235" s="3"/>
+      <c r="BG235" s="3"/>
+      <c r="BH235" s="3"/>
+    </row>
+    <row r="236" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -14430,8 +15482,12 @@
       <c r="BB236" s="3"/>
       <c r="BC236" s="3"/>
       <c r="BD236" s="3"/>
-    </row>
-    <row r="237" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE236" s="3"/>
+      <c r="BF236" s="3"/>
+      <c r="BG236" s="3"/>
+      <c r="BH236" s="3"/>
+    </row>
+    <row r="237" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -14486,8 +15542,12 @@
       <c r="BB237" s="3"/>
       <c r="BC237" s="3"/>
       <c r="BD237" s="3"/>
-    </row>
-    <row r="238" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE237" s="3"/>
+      <c r="BF237" s="3"/>
+      <c r="BG237" s="3"/>
+      <c r="BH237" s="3"/>
+    </row>
+    <row r="238" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -14542,8 +15602,12 @@
       <c r="BB238" s="3"/>
       <c r="BC238" s="3"/>
       <c r="BD238" s="3"/>
-    </row>
-    <row r="239" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE238" s="3"/>
+      <c r="BF238" s="3"/>
+      <c r="BG238" s="3"/>
+      <c r="BH238" s="3"/>
+    </row>
+    <row r="239" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -14598,8 +15662,12 @@
       <c r="BB239" s="3"/>
       <c r="BC239" s="3"/>
       <c r="BD239" s="3"/>
-    </row>
-    <row r="240" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE239" s="3"/>
+      <c r="BF239" s="3"/>
+      <c r="BG239" s="3"/>
+      <c r="BH239" s="3"/>
+    </row>
+    <row r="240" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -14654,8 +15722,12 @@
       <c r="BB240" s="3"/>
       <c r="BC240" s="3"/>
       <c r="BD240" s="3"/>
-    </row>
-    <row r="241" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE240" s="3"/>
+      <c r="BF240" s="3"/>
+      <c r="BG240" s="3"/>
+      <c r="BH240" s="3"/>
+    </row>
+    <row r="241" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -14710,8 +15782,12 @@
       <c r="BB241" s="3"/>
       <c r="BC241" s="3"/>
       <c r="BD241" s="3"/>
-    </row>
-    <row r="242" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE241" s="3"/>
+      <c r="BF241" s="3"/>
+      <c r="BG241" s="3"/>
+      <c r="BH241" s="3"/>
+    </row>
+    <row r="242" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -14766,8 +15842,12 @@
       <c r="BB242" s="3"/>
       <c r="BC242" s="3"/>
       <c r="BD242" s="3"/>
-    </row>
-    <row r="243" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE242" s="3"/>
+      <c r="BF242" s="3"/>
+      <c r="BG242" s="3"/>
+      <c r="BH242" s="3"/>
+    </row>
+    <row r="243" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -14822,8 +15902,12 @@
       <c r="BB243" s="3"/>
       <c r="BC243" s="3"/>
       <c r="BD243" s="3"/>
-    </row>
-    <row r="244" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE243" s="3"/>
+      <c r="BF243" s="3"/>
+      <c r="BG243" s="3"/>
+      <c r="BH243" s="3"/>
+    </row>
+    <row r="244" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -14878,8 +15962,12 @@
       <c r="BB244" s="3"/>
       <c r="BC244" s="3"/>
       <c r="BD244" s="3"/>
-    </row>
-    <row r="245" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE244" s="3"/>
+      <c r="BF244" s="3"/>
+      <c r="BG244" s="3"/>
+      <c r="BH244" s="3"/>
+    </row>
+    <row r="245" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -14934,8 +16022,12 @@
       <c r="BB245" s="3"/>
       <c r="BC245" s="3"/>
       <c r="BD245" s="3"/>
-    </row>
-    <row r="246" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE245" s="3"/>
+      <c r="BF245" s="3"/>
+      <c r="BG245" s="3"/>
+      <c r="BH245" s="3"/>
+    </row>
+    <row r="246" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -14990,8 +16082,12 @@
       <c r="BB246" s="3"/>
       <c r="BC246" s="3"/>
       <c r="BD246" s="3"/>
-    </row>
-    <row r="247" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE246" s="3"/>
+      <c r="BF246" s="3"/>
+      <c r="BG246" s="3"/>
+      <c r="BH246" s="3"/>
+    </row>
+    <row r="247" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -15046,8 +16142,12 @@
       <c r="BB247" s="3"/>
       <c r="BC247" s="3"/>
       <c r="BD247" s="3"/>
-    </row>
-    <row r="248" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE247" s="3"/>
+      <c r="BF247" s="3"/>
+      <c r="BG247" s="3"/>
+      <c r="BH247" s="3"/>
+    </row>
+    <row r="248" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -15102,8 +16202,12 @@
       <c r="BB248" s="3"/>
       <c r="BC248" s="3"/>
       <c r="BD248" s="3"/>
-    </row>
-    <row r="249" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE248" s="3"/>
+      <c r="BF248" s="3"/>
+      <c r="BG248" s="3"/>
+      <c r="BH248" s="3"/>
+    </row>
+    <row r="249" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -15158,8 +16262,12 @@
       <c r="BB249" s="3"/>
       <c r="BC249" s="3"/>
       <c r="BD249" s="3"/>
-    </row>
-    <row r="250" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE249" s="3"/>
+      <c r="BF249" s="3"/>
+      <c r="BG249" s="3"/>
+      <c r="BH249" s="3"/>
+    </row>
+    <row r="250" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -15214,8 +16322,12 @@
       <c r="BB250" s="3"/>
       <c r="BC250" s="3"/>
       <c r="BD250" s="3"/>
-    </row>
-    <row r="251" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE250" s="3"/>
+      <c r="BF250" s="3"/>
+      <c r="BG250" s="3"/>
+      <c r="BH250" s="3"/>
+    </row>
+    <row r="251" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -15270,8 +16382,12 @@
       <c r="BB251" s="3"/>
       <c r="BC251" s="3"/>
       <c r="BD251" s="3"/>
-    </row>
-    <row r="252" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE251" s="3"/>
+      <c r="BF251" s="3"/>
+      <c r="BG251" s="3"/>
+      <c r="BH251" s="3"/>
+    </row>
+    <row r="252" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -15326,8 +16442,12 @@
       <c r="BB252" s="3"/>
       <c r="BC252" s="3"/>
       <c r="BD252" s="3"/>
-    </row>
-    <row r="253" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE252" s="3"/>
+      <c r="BF252" s="3"/>
+      <c r="BG252" s="3"/>
+      <c r="BH252" s="3"/>
+    </row>
+    <row r="253" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -15382,8 +16502,12 @@
       <c r="BB253" s="3"/>
       <c r="BC253" s="3"/>
       <c r="BD253" s="3"/>
-    </row>
-    <row r="254" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE253" s="3"/>
+      <c r="BF253" s="3"/>
+      <c r="BG253" s="3"/>
+      <c r="BH253" s="3"/>
+    </row>
+    <row r="254" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -15438,8 +16562,12 @@
       <c r="BB254" s="3"/>
       <c r="BC254" s="3"/>
       <c r="BD254" s="3"/>
-    </row>
-    <row r="255" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE254" s="3"/>
+      <c r="BF254" s="3"/>
+      <c r="BG254" s="3"/>
+      <c r="BH254" s="3"/>
+    </row>
+    <row r="255" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -15494,8 +16622,12 @@
       <c r="BB255" s="3"/>
       <c r="BC255" s="3"/>
       <c r="BD255" s="3"/>
-    </row>
-    <row r="256" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE255" s="3"/>
+      <c r="BF255" s="3"/>
+      <c r="BG255" s="3"/>
+      <c r="BH255" s="3"/>
+    </row>
+    <row r="256" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -15550,8 +16682,12 @@
       <c r="BB256" s="3"/>
       <c r="BC256" s="3"/>
       <c r="BD256" s="3"/>
-    </row>
-    <row r="257" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE256" s="3"/>
+      <c r="BF256" s="3"/>
+      <c r="BG256" s="3"/>
+      <c r="BH256" s="3"/>
+    </row>
+    <row r="257" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -15606,8 +16742,12 @@
       <c r="BB257" s="3"/>
       <c r="BC257" s="3"/>
       <c r="BD257" s="3"/>
-    </row>
-    <row r="258" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE257" s="3"/>
+      <c r="BF257" s="3"/>
+      <c r="BG257" s="3"/>
+      <c r="BH257" s="3"/>
+    </row>
+    <row r="258" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -15662,8 +16802,12 @@
       <c r="BB258" s="3"/>
       <c r="BC258" s="3"/>
       <c r="BD258" s="3"/>
-    </row>
-    <row r="259" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE258" s="3"/>
+      <c r="BF258" s="3"/>
+      <c r="BG258" s="3"/>
+      <c r="BH258" s="3"/>
+    </row>
+    <row r="259" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -15718,8 +16862,12 @@
       <c r="BB259" s="3"/>
       <c r="BC259" s="3"/>
       <c r="BD259" s="3"/>
-    </row>
-    <row r="260" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE259" s="3"/>
+      <c r="BF259" s="3"/>
+      <c r="BG259" s="3"/>
+      <c r="BH259" s="3"/>
+    </row>
+    <row r="260" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -15774,8 +16922,12 @@
       <c r="BB260" s="3"/>
       <c r="BC260" s="3"/>
       <c r="BD260" s="3"/>
-    </row>
-    <row r="261" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE260" s="3"/>
+      <c r="BF260" s="3"/>
+      <c r="BG260" s="3"/>
+      <c r="BH260" s="3"/>
+    </row>
+    <row r="261" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -15830,8 +16982,12 @@
       <c r="BB261" s="3"/>
       <c r="BC261" s="3"/>
       <c r="BD261" s="3"/>
-    </row>
-    <row r="262" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE261" s="3"/>
+      <c r="BF261" s="3"/>
+      <c r="BG261" s="3"/>
+      <c r="BH261" s="3"/>
+    </row>
+    <row r="262" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -15886,8 +17042,12 @@
       <c r="BB262" s="3"/>
       <c r="BC262" s="3"/>
       <c r="BD262" s="3"/>
-    </row>
-    <row r="263" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE262" s="3"/>
+      <c r="BF262" s="3"/>
+      <c r="BG262" s="3"/>
+      <c r="BH262" s="3"/>
+    </row>
+    <row r="263" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -15942,8 +17102,12 @@
       <c r="BB263" s="3"/>
       <c r="BC263" s="3"/>
       <c r="BD263" s="3"/>
-    </row>
-    <row r="264" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE263" s="3"/>
+      <c r="BF263" s="3"/>
+      <c r="BG263" s="3"/>
+      <c r="BH263" s="3"/>
+    </row>
+    <row r="264" spans="3:60" x14ac:dyDescent="0.25">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -15998,6 +17162,10 @@
       <c r="BB264" s="3"/>
       <c r="BC264" s="3"/>
       <c r="BD264" s="3"/>
+      <c r="BE264" s="3"/>
+      <c r="BF264" s="3"/>
+      <c r="BG264" s="3"/>
+      <c r="BH264" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PUM.DE.xlsx
+++ b/PUM.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FA030D-DA27-45B3-9430-929E1D67E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6575A-B932-4874-A72D-CA5E69BBE28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46746356-DDAA-46AE-8571-B699D0C98654}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>24.59</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>148.08000000000001</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>3641.2872000000002</v>
+        <v>3020.8319999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>283.89999999999998</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>1307.1999999999998</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>4664.5871999999999</v>
+        <v>4044.1319999999996</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -710,11 +710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358FBAD2-1CB2-460A-BF2B-D7C2BA58E00E}">
   <dimension ref="A1:BH264"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1399,9 @@
       <c r="G11" s="6">
         <v>2102.3000000000002</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>2117.3000000000002</v>
+      </c>
       <c r="I11" s="6">
         <v>2308.1999999999998</v>
       </c>
@@ -1409,7 +1411,9 @@
       <c r="K11" s="6">
         <v>2076</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>1942.2</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="3"/>
@@ -1568,7 +1572,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2117.3000000000002</v>
       </c>
       <c r="I13" s="3">
         <f>+I11-I12</f>
@@ -1835,14 +1839,14 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2117.3000000000002</v>
       </c>
       <c r="I16" s="3">
         <f>+I13+I14-I15</f>
         <v>236.99999999999989</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:K18" si="4">+J13+J14-J15</f>
+        <f t="shared" ref="J16:K16" si="4">+J13+J14-J15</f>
         <v>108.90000000000009</v>
       </c>
       <c r="K16" s="3">
@@ -2022,7 +2026,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2117.3000000000002</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="7"/>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2117.3000000000002</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="10"/>
@@ -2396,7 +2400,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2117.3000000000002</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="13"/>
@@ -2881,9 +2885,9 @@
         <f t="shared" si="20"/>
         <v>0.47519383532321752</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
         <f>+I13/I11</f>
@@ -2971,9 +2975,9 @@
         <f t="shared" si="22"/>
         <v>7.5583884317176567E-2</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
         <f>+I16/I11</f>
@@ -3061,9 +3065,9 @@
         <f t="shared" si="24"/>
         <v>0.24981074943224771</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="7">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <f>+I19/I18</f>

--- a/PUM.DE.xlsx
+++ b/PUM.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A2ABF-5089-4EC5-BE8F-1DF106FF5396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56611F90-C1BD-485C-BE73-2D7ECB23B813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>148.08000000000001</v>
+        <v>147.13666000000001</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>50</v>
@@ -671,7 +671,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>3020.8319999999999</v>
+        <v>3001.5878640000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="4">
-        <v>283.89999999999998</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>50</v>
@@ -693,8 +693,8 @@
         <v>6</v>
       </c>
       <c r="I6" s="4">
-        <f>300+28.4+978.8</f>
-        <v>1307.1999999999998</v>
+        <f>984.1+359.8</f>
+        <v>1343.9</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>50</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>4044.1319999999996</v>
+        <v>4052.8878640000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,10 +725,10 @@
   <dimension ref="A1:BH264"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,7 +812,9 @@
       <c r="G3" s="4">
         <v>855.7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>817.9</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
         <v>796.5</v>
@@ -820,7 +822,9 @@
       <c r="K3" s="4">
         <v>891.7</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>771.7</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -887,7 +891,9 @@
       <c r="G4" s="4">
         <v>790</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>887.5</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <v>986.3</v>
@@ -895,7 +901,9 @@
       <c r="K4" s="4">
         <v>753.7</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>779.9</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -962,7 +970,9 @@
       <c r="G5" s="4">
         <v>456.6</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>411.9</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
         <v>506.6</v>
@@ -970,7 +980,9 @@
       <c r="K5" s="4">
         <v>430.5</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>390.5</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1037,7 +1049,9 @@
       <c r="G6" s="4">
         <v>1181.5</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>1097</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
         <v>1214.8</v>
@@ -1045,7 +1059,9 @@
       <c r="K6" s="4">
         <v>1186</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>1061.0999999999999</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1112,7 +1128,9 @@
       <c r="G7" s="4">
         <v>608.1</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>705.6</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
         <v>736.5</v>
@@ -1120,7 +1138,9 @@
       <c r="K7" s="4">
         <v>594.29999999999995</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>597.79999999999995</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1187,7 +1207,9 @@
       <c r="G8" s="4">
         <v>312.7</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>314.8</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
         <v>338</v>
@@ -1195,7 +1217,9 @@
       <c r="K8" s="4">
         <v>295.7</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>283.39999999999998</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1262,7 +1286,9 @@
       <c r="G9" s="4">
         <v>1608.1</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>1529.6</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
         <v>1525.8</v>
@@ -1270,7 +1296,9 @@
       <c r="K9" s="4">
         <v>1529.5</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>1341.2</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1337,7 +1365,9 @@
       <c r="G10" s="4">
         <v>494.2</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>587.70000000000005</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
         <v>763.5</v>
@@ -1345,7 +1375,9 @@
       <c r="K10" s="4">
         <v>546.5</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>601.1</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1497,7 +1529,9 @@
       <c r="G12" s="4">
         <v>1103.3</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1126.7</v>
+      </c>
       <c r="I12" s="4">
         <v>1202.7</v>
       </c>
@@ -1507,7 +1541,9 @@
       <c r="K12" s="4">
         <v>1100.9000000000001</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>1047.5999999999999</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1587,21 +1623,24 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>2117.3000000000002</v>
+        <v>990.60000000000014</v>
       </c>
       <c r="I13" s="4">
         <f>+I11-I12</f>
         <v>1105.4999999999998</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13:K13" si="1">+J11-J12</f>
+        <f t="shared" ref="J13:L13" si="1">+J11-J12</f>
         <v>1082.9000000000001</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
         <v>975.09999999999991</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>894.60000000000014</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1684,7 +1723,9 @@
       <c r="G14" s="4">
         <v>5.2</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>5.9</v>
+      </c>
       <c r="I14" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1694,7 +1735,9 @@
       <c r="K14" s="4">
         <v>5.5</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>6.9</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1763,7 +1806,9 @@
       <c r="G15" s="4">
         <v>845.3</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>879.3</v>
+      </c>
       <c r="I15" s="4">
         <v>873.4</v>
       </c>
@@ -1774,7 +1819,9 @@
         <f>904.9+18</f>
         <v>922.9</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>914.7</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1854,21 +1901,24 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>2117.3000000000002</v>
+        <v>117.20000000000016</v>
       </c>
       <c r="I16" s="4">
         <f>+I13+I14-I15</f>
         <v>236.99999999999989</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" ref="J16:K16" si="4">+J13+J14-J15</f>
+        <f t="shared" ref="J16:L16" si="4">+J13+J14-J15</f>
         <v>108.90000000000009</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="4"/>
         <v>57.699999999999932</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <f t="shared" si="4"/>
+        <v>-13.199999999999932</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1951,7 +2001,9 @@
       <c r="G17" s="4">
         <v>26.8</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>42.6</v>
+      </c>
       <c r="I17" s="4">
         <v>46.7</v>
       </c>
@@ -1961,7 +2013,10 @@
       <c r="K17" s="4">
         <v>42</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <f>84.6+46.6</f>
+        <v>131.19999999999999</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2032,7 +2087,7 @@
         <v>190.79999999999973</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:K18" si="7">+F16-F17</f>
+        <f t="shared" ref="F18:L18" si="7">+F16-F17</f>
         <v>27.300000000000097</v>
       </c>
       <c r="G18" s="4">
@@ -2041,7 +2096,7 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="7"/>
-        <v>2117.3000000000002</v>
+        <v>74.600000000000165</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
@@ -2055,7 +2110,10 @@
         <f t="shared" si="7"/>
         <v>15.699999999999932</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="7"/>
+        <v>-144.39999999999992</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2138,7 +2196,9 @@
       <c r="G19" s="4">
         <v>33</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>18.399999999999999</v>
+      </c>
       <c r="I19" s="4">
         <v>47.8</v>
       </c>
@@ -2148,7 +2208,9 @@
       <c r="K19" s="4">
         <v>4.2</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>94.7</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2219,7 +2281,7 @@
         <v>142.89999999999972</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ref="F20:K20" si="10">+F18-F19</f>
+        <f t="shared" ref="F20:L20" si="10">+F18-F19</f>
         <v>22.400000000000098</v>
       </c>
       <c r="G20" s="4">
@@ -2228,7 +2290,7 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" si="10"/>
-        <v>2117.3000000000002</v>
+        <v>56.200000000000166</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="10"/>
@@ -2242,7 +2304,10 @@
         <f t="shared" si="10"/>
         <v>11.499999999999932</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <f t="shared" si="10"/>
+        <v>-239.09999999999991</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2325,7 +2390,9 @@
       <c r="G21" s="4">
         <v>11.8</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>14.3</v>
+      </c>
       <c r="I21" s="4">
         <v>14.6</v>
       </c>
@@ -2335,7 +2402,9 @@
       <c r="K21" s="4">
         <v>11.1</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>7.9</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2406,7 +2475,7 @@
         <v>131.59999999999971</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:K22" si="13">+F20-F21</f>
+        <f t="shared" ref="F22:L22" si="13">+F20-F21</f>
         <v>0.80000000000009663</v>
       </c>
       <c r="G22" s="4">
@@ -2415,7 +2484,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="13"/>
-        <v>2117.3000000000002</v>
+        <v>41.900000000000162</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="13"/>
@@ -2429,7 +2498,10 @@
         <f t="shared" si="13"/>
         <v>0.39999999999993285</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <f t="shared" si="13"/>
+        <v>-246.99999999999991</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2574,16 +2646,16 @@
         <v>0.87838739821118483</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" ref="F24:K24" si="16">+F22/F25</f>
+        <f t="shared" ref="F24:L24" si="16">+F22/F25</f>
         <v>5.3386720053393167E-3</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="16"/>
         <v>0.58231056563500749</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="7">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.27973192148337656</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="16"/>
@@ -2597,7 +2669,10 @@
         <f t="shared" si="16"/>
         <v>2.7012425715824745E-3</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <f t="shared" si="16"/>
+        <v>-1.6732199307509137</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="4"/>
@@ -2680,7 +2755,9 @@
       <c r="G25" s="4">
         <v>149.91999999999999</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>149.78626600000001</v>
+      </c>
       <c r="I25" s="4">
         <v>149.49</v>
       </c>
@@ -2690,7 +2767,9 @@
       <c r="K25" s="4">
         <v>148.08000000000001</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>147.61956599999999</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2823,10 +2902,13 @@
         <v>0.15497931591161329</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ref="K27" si="19">+K11/G11-1</f>
+        <f t="shared" ref="K27:L27" si="19">+K11/G11-1</f>
         <v>-1.2510107976977713E-2</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8">
+        <f t="shared" si="19"/>
+        <v>-8.2699664667264972E-2</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="6"/>
@@ -2902,7 +2984,7 @@
       </c>
       <c r="H28" s="9">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.46786001039059183</v>
       </c>
       <c r="I28" s="9">
         <f>+I13/I11</f>
@@ -2916,7 +2998,10 @@
         <f t="shared" si="21"/>
         <v>0.46970134874759145</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28" si="22">+L13/L11</f>
+        <v>0.46061167747914744</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="4"/>
@@ -2971,42 +3056,45 @@
         <v>33</v>
       </c>
       <c r="C29" s="9" t="e">
-        <f t="shared" ref="C29:H29" si="22">+C16/C11</f>
+        <f t="shared" ref="C29:H29" si="23">+C16/C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10224568387348004</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.7623852285339566E-2</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.5583884317176567E-2</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>5.5353516270722214E-2</v>
       </c>
       <c r="I29" s="9">
         <f>+I16/I11</f>
         <v>0.10267741096958664</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" ref="J29:K29" si="23">+J16/J11</f>
+        <f t="shared" ref="J29:K29" si="24">+J16/J11</f>
         <v>4.7567048134882536E-2</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.7793834296724437E-2</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <f t="shared" ref="L29" si="25">+L16/L11</f>
+        <v>-6.7964164349706164E-3</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="4"/>
@@ -3061,42 +3149,45 @@
         <v>34</v>
       </c>
       <c r="C30" s="9" t="e">
-        <f t="shared" ref="C30:H30" si="24">+C19/C18</f>
+        <f t="shared" ref="C30:H30" si="26">+C19/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25104821802935046</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.17948717948717888</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.24981074943224771</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.24664879356568309</v>
       </c>
       <c r="I30" s="9">
         <f>+I19/I18</f>
         <v>0.25118234366789294</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:K30" si="25">+J19/J18</f>
+        <f t="shared" ref="J30:K30" si="27">+J19/J18</f>
         <v>0.31651376146788945</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.26751592356688014</v>
       </c>
-      <c r="L30" s="9"/>
+      <c r="L30" s="9">
+        <f t="shared" ref="L30" si="28">+L19/L18</f>
+        <v>-0.6558171745152358</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="4"/>

--- a/PUM.DE.xlsx
+++ b/PUM.DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56611F90-C1BD-485C-BE73-2D7ECB23B813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B64CA-044B-4B59-9134-47C7149FDA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DF056538-1695-47DF-BC32-BA7DD1F9A83B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t xml:space="preserve">Puma </t>
   </si>
@@ -200,6 +200,9 @@
   <si>
     <t>Royalties</t>
   </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
@@ -208,13 +211,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,22 +280,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -626,7 +638,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>20.399999999999999</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -671,7 +683,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>3001.5878640000001</v>
+        <v>3450.3546770000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -706,7 +718,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>4052.8878640000003</v>
+        <v>4501.6546770000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,10 +737,10 @@
   <dimension ref="A1:BH264"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,6 +810,9 @@
       <c r="U2" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="V2" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -815,7 +830,9 @@
       <c r="H3" s="4">
         <v>817.9</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>1005.5</v>
+      </c>
       <c r="J3" s="4">
         <v>796.5</v>
       </c>
@@ -825,7 +842,9 @@
       <c r="L3" s="4">
         <v>771.7</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>910.6</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -894,7 +913,9 @@
       <c r="H4" s="4">
         <v>887.5</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>872.2</v>
+      </c>
       <c r="J4" s="4">
         <v>986.3</v>
       </c>
@@ -904,7 +925,9 @@
       <c r="L4" s="4">
         <v>779.9</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>678.1</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -973,7 +996,9 @@
       <c r="H5" s="4">
         <v>411.9</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>430.4</v>
+      </c>
       <c r="J5" s="4">
         <v>506.6</v>
       </c>
@@ -983,7 +1008,9 @@
       <c r="L5" s="4">
         <v>390.5</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>367.1</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1052,7 +1079,9 @@
       <c r="H6" s="4">
         <v>1097</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>1240.3</v>
+      </c>
       <c r="J6" s="4">
         <v>1214.8</v>
       </c>
@@ -1062,7 +1091,9 @@
       <c r="L6" s="4">
         <v>1061.0999999999999</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>1045.8</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1131,7 +1162,9 @@
       <c r="H7" s="4">
         <v>705.6</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>763.6</v>
+      </c>
       <c r="J7" s="4">
         <v>736.5</v>
       </c>
@@ -1141,7 +1174,9 @@
       <c r="L7" s="4">
         <v>597.79999999999995</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>635.5</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1210,7 +1245,9 @@
       <c r="H8" s="4">
         <v>314.8</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>304.2</v>
+      </c>
       <c r="J8" s="4">
         <v>338</v>
       </c>
@@ -1220,7 +1257,9 @@
       <c r="L8" s="4">
         <v>283.39999999999998</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>274.39999999999998</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1289,7 +1328,9 @@
       <c r="H9" s="4">
         <v>1529.6</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>1728.2</v>
+      </c>
       <c r="J9" s="4">
         <v>1525.8</v>
       </c>
@@ -1299,7 +1340,9 @@
       <c r="L9" s="4">
         <v>1341.2</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>1385.7</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1368,7 +1411,9 @@
       <c r="H10" s="4">
         <v>587.70000000000005</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>580</v>
+      </c>
       <c r="J10" s="4">
         <v>763.5</v>
       </c>
@@ -1378,7 +1423,9 @@
       <c r="L10" s="4">
         <v>601.1</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>570</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1461,7 +1508,9 @@
       <c r="L11" s="6">
         <v>1942.2</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>1955.7</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1544,7 +1593,9 @@
       <c r="L12" s="4">
         <v>1047.5999999999999</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>1070.8</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1630,7 +1681,7 @@
         <v>1105.4999999999998</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13:L13" si="1">+J11-J12</f>
+        <f t="shared" ref="J13:M13" si="1">+J11-J12</f>
         <v>1082.9000000000001</v>
       </c>
       <c r="K13" s="4">
@@ -1641,7 +1692,10 @@
         <f t="shared" si="1"/>
         <v>894.60000000000014</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>884.90000000000009</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4">
@@ -1738,7 +1792,9 @@
       <c r="L14" s="4">
         <v>6.9</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>5.2</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1822,7 +1878,10 @@
       <c r="L15" s="4">
         <v>914.7</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <f>850.6+10.1</f>
+        <v>860.7</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1908,7 +1967,7 @@
         <v>236.99999999999989</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" ref="J16:L16" si="4">+J13+J14-J15</f>
+        <f t="shared" ref="J16:M16" si="4">+J13+J14-J15</f>
         <v>108.90000000000009</v>
       </c>
       <c r="K16" s="4">
@@ -1919,7 +1978,10 @@
         <f t="shared" si="4"/>
         <v>-13.199999999999932</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>29.400000000000091</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4">
@@ -2017,7 +2079,9 @@
         <f>84.6+46.6</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>43.8</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2087,7 +2151,7 @@
         <v>190.79999999999973</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:L18" si="7">+F16-F17</f>
+        <f t="shared" ref="F18:M18" si="7">+F16-F17</f>
         <v>27.300000000000097</v>
       </c>
       <c r="G18" s="4">
@@ -2114,7 +2178,10 @@
         <f t="shared" si="7"/>
         <v>-144.39999999999992</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <f t="shared" si="7"/>
+        <v>-14.399999999999906</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4">
@@ -2211,7 +2278,9 @@
       <c r="L19" s="4">
         <v>94.7</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>37.9</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2281,7 +2350,7 @@
         <v>142.89999999999972</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ref="F20:L20" si="10">+F18-F19</f>
+        <f t="shared" ref="F20:M20" si="10">+F18-F19</f>
         <v>22.400000000000098</v>
       </c>
       <c r="G20" s="4">
@@ -2308,7 +2377,10 @@
         <f t="shared" si="10"/>
         <v>-239.09999999999991</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="10"/>
+        <v>-52.299999999999905</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
@@ -2405,7 +2477,9 @@
       <c r="L21" s="4">
         <v>7.9</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>10</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2475,7 +2549,7 @@
         <v>131.59999999999971</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:L22" si="13">+F20-F21</f>
+        <f t="shared" ref="F22:M22" si="13">+F20-F21</f>
         <v>0.80000000000009663</v>
       </c>
       <c r="G22" s="4">
@@ -2502,7 +2576,10 @@
         <f t="shared" si="13"/>
         <v>-246.99999999999991</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <f t="shared" si="13"/>
+        <v>-62.299999999999905</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4">
@@ -2646,7 +2723,7 @@
         <v>0.87838739821118483</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" ref="F24:L24" si="16">+F22/F25</f>
+        <f t="shared" ref="F24:M24" si="16">+F22/F25</f>
         <v>5.3386720053393167E-3</v>
       </c>
       <c r="G24" s="7">
@@ -2673,7 +2750,10 @@
         <f t="shared" si="16"/>
         <v>-1.6732199307509137</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.4224588051807141</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="4"/>
       <c r="P24" s="7" t="e">
@@ -2770,7 +2850,9 @@
       <c r="L25" s="4">
         <v>147.61956599999999</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>147.47</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2902,14 +2984,17 @@
         <v>0.15497931591161329</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ref="K27:L27" si="19">+K11/G11-1</f>
+        <f t="shared" ref="K27:M27" si="19">+K11/G11-1</f>
         <v>-1.2510107976977713E-2</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="19"/>
         <v>-8.2699664667264972E-2</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="8">
+        <f t="shared" si="19"/>
+        <v>-0.15271640239147377</v>
+      </c>
       <c r="N27" s="8"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2999,10 +3084,13 @@
         <v>0.46970134874759145</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28" si="22">+L13/L11</f>
+        <f t="shared" ref="L28:M28" si="22">+L13/L11</f>
         <v>0.46061167747914744</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="M28" s="9">
+        <f t="shared" si="22"/>
+        <v>0.45247226057166234</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3092,10 +3180,13 @@
         <v>2.7793834296724437E-2</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" ref="L29" si="25">+L16/L11</f>
+        <f t="shared" ref="L29:M29" si="25">+L16/L11</f>
         <v>-6.7964164349706164E-3</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9">
+        <f t="shared" si="25"/>
+        <v>1.5032980518484475E-2</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3185,10 +3276,13 @@
         <v>0.26751592356688014</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" ref="L30" si="28">+L19/L18</f>
+        <f t="shared" ref="L30:M30" si="28">+L19/L18</f>
         <v>-0.6558171745152358</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9">
+        <f t="shared" si="28"/>
+        <v>-2.6319444444444615</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
